--- a/Output/dTot.xlsx
+++ b/Output/dTot.xlsx
@@ -845,22 +845,22 @@
         <v>31</v>
       </c>
       <c r="V2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Y2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AA2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB2">
         <v>37</v>
@@ -1096,22 +1096,22 @@
         <v>33</v>
       </c>
       <c r="V3">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
         <v>8</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
         <v>12</v>
-      </c>
-      <c r="Z3">
-        <v>14</v>
-      </c>
-      <c r="AA3">
-        <v>8</v>
       </c>
       <c r="AB3">
         <v>29</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="V4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W4">
         <v>10</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB4">
         <v>42</v>
@@ -1582,22 +1582,22 @@
         <v>23</v>
       </c>
       <c r="V5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB5">
         <v>23</v>
@@ -1835,7 +1835,7 @@
         <v>36</v>
       </c>
       <c r="V6">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W6">
         <v>10</v>
@@ -1844,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="Y6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <v>10</v>
@@ -2097,16 +2097,16 @@
         <v>10</v>
       </c>
       <c r="X7">
+        <v>13</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
         <v>7</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>12</v>
-      </c>
-      <c r="Z7">
-        <v>13</v>
-      </c>
-      <c r="AA7">
-        <v>8</v>
       </c>
       <c r="AB7">
         <v>31</v>
@@ -2339,22 +2339,22 @@
         <v>29</v>
       </c>
       <c r="V8">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W8">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
         <v>12</v>
-      </c>
-      <c r="X8">
-        <v>12</v>
-      </c>
-      <c r="Y8">
-        <v>13</v>
-      </c>
-      <c r="Z8">
-        <v>14</v>
-      </c>
-      <c r="AA8">
-        <v>8</v>
       </c>
       <c r="AB8">
         <v>34</v>
@@ -2582,22 +2582,22 @@
         <v>16</v>
       </c>
       <c r="V9">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="W9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
         <v>12</v>
-      </c>
-      <c r="Z9">
-        <v>13</v>
-      </c>
-      <c r="AA9">
-        <v>8</v>
       </c>
       <c r="AB9">
         <v>44</v>
@@ -2838,22 +2838,22 @@
         <v>25</v>
       </c>
       <c r="V10">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Y10">
         <v>10</v>
       </c>
       <c r="Z10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB10">
         <v>34</v>
@@ -3075,22 +3075,22 @@
         <v>13</v>
       </c>
       <c r="V11">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="W11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
         <v>12</v>
-      </c>
-      <c r="Y11">
-        <v>15</v>
-      </c>
-      <c r="Z11">
-        <v>16</v>
-      </c>
-      <c r="AA11">
-        <v>8</v>
       </c>
       <c r="AB11">
         <v>45</v>
@@ -3331,22 +3331,22 @@
         <v>33</v>
       </c>
       <c r="V12">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="W12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB12">
         <v>29</v>
@@ -3574,22 +3574,22 @@
         <v>15</v>
       </c>
       <c r="V13">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X13">
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB13">
         <v>35</v>
@@ -3827,22 +3827,22 @@
         <v>37</v>
       </c>
       <c r="V14">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="W14">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X14">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y14">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB14">
         <v>36</v>
@@ -4070,22 +4070,22 @@
         <v>47</v>
       </c>
       <c r="V15">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y15">
         <v>10</v>
       </c>
       <c r="Z15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB15">
         <v>37</v>
@@ -4313,22 +4313,22 @@
         <v>25</v>
       </c>
       <c r="V16">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="W16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB16">
         <v>39</v>
@@ -4572,22 +4572,22 @@
         <v>41</v>
       </c>
       <c r="V17">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17">
         <v>13</v>
-      </c>
-      <c r="Z17">
-        <v>13</v>
-      </c>
-      <c r="AA17">
-        <v>7</v>
       </c>
       <c r="AB17">
         <v>38</v>
@@ -4817,22 +4817,22 @@
         <v>27</v>
       </c>
       <c r="V18">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AB18">
         <v>32</v>
@@ -5073,19 +5073,19 @@
         <v>16</v>
       </c>
       <c r="V19">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="W19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y19">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA19">
         <v>10</v>
@@ -5319,22 +5319,22 @@
         <v>21</v>
       </c>
       <c r="V20">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="W20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB20">
         <v>31</v>
@@ -5559,22 +5559,22 @@
         <v>48</v>
       </c>
       <c r="V21">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W21">
         <v>10</v>
       </c>
       <c r="X21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z21">
+        <v>9</v>
+      </c>
+      <c r="AA21">
         <v>11</v>
-      </c>
-      <c r="AA21">
-        <v>9</v>
       </c>
       <c r="AB21">
         <v>35</v>
@@ -5807,22 +5807,22 @@
         <v>16</v>
       </c>
       <c r="V22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X22">
         <v>10</v>
       </c>
       <c r="Y22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z22">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB22">
         <v>45</v>
@@ -6069,19 +6069,19 @@
         <v>50</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z23">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB23">
         <v>37</v>
@@ -6319,22 +6319,22 @@
         <v>31</v>
       </c>
       <c r="V24">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Y24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB24">
         <v>34</v>
@@ -6575,22 +6575,22 @@
         <v>44</v>
       </c>
       <c r="V25">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="W25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>6</v>
+      </c>
+      <c r="Z25">
+        <v>4</v>
+      </c>
+      <c r="AA25">
         <v>11</v>
-      </c>
-      <c r="Y25">
-        <v>14</v>
-      </c>
-      <c r="Z25">
-        <v>16</v>
-      </c>
-      <c r="AA25">
-        <v>9</v>
       </c>
       <c r="AB25">
         <v>35</v>
@@ -6831,22 +6831,22 @@
         <v>16</v>
       </c>
       <c r="V26">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W26">
         <v>10</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y26">
+        <v>8</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+      <c r="AA26">
         <v>12</v>
-      </c>
-      <c r="Z26">
-        <v>15</v>
-      </c>
-      <c r="AA26">
-        <v>8</v>
       </c>
       <c r="AB26">
         <v>42</v>
@@ -7087,22 +7087,22 @@
         <v>33</v>
       </c>
       <c r="V27">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X27">
         <v>10</v>
       </c>
       <c r="Y27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB27">
         <v>46</v>
@@ -7330,22 +7330,22 @@
         <v>31</v>
       </c>
       <c r="V28">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X28">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Y28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB28">
         <v>35</v>
@@ -7570,22 +7570,22 @@
         <v>32</v>
       </c>
       <c r="V29">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="W29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Y29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB29">
         <v>38</v>
@@ -7818,22 +7818,22 @@
         <v>24</v>
       </c>
       <c r="V30">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>7</v>
+      </c>
+      <c r="AA30">
         <v>13</v>
-      </c>
-      <c r="X30">
-        <v>15</v>
-      </c>
-      <c r="Y30">
-        <v>13</v>
-      </c>
-      <c r="Z30">
-        <v>13</v>
-      </c>
-      <c r="AA30">
-        <v>7</v>
       </c>
       <c r="AB30">
         <v>42</v>
@@ -8077,22 +8077,22 @@
         <v>31</v>
       </c>
       <c r="V31">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y31">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z31">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB31">
         <v>46</v>
@@ -8331,22 +8331,22 @@
         <v>26</v>
       </c>
       <c r="V32">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="W32">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA32">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB32">
         <v>26</v>
@@ -8587,19 +8587,19 @@
         <v>50</v>
       </c>
       <c r="W33">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X33">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AA33">
         <v>13</v>
-      </c>
-      <c r="Z33">
-        <v>9</v>
-      </c>
-      <c r="AA33">
-        <v>7</v>
       </c>
       <c r="AB33">
         <v>40</v>
@@ -8840,22 +8840,22 @@
         <v>32</v>
       </c>
       <c r="V34">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X34">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB34">
         <v>39</v>
@@ -9102,22 +9102,22 @@
         <v>32</v>
       </c>
       <c r="V35">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB35">
         <v>26</v>
@@ -9345,19 +9345,19 @@
         <v>19</v>
       </c>
       <c r="V36">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="W36">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X36">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y36">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA36">
         <v>10</v>
@@ -9601,22 +9601,22 @@
         <v>39</v>
       </c>
       <c r="V37">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB37">
         <v>29</v>
@@ -9860,22 +9860,22 @@
         <v>48</v>
       </c>
       <c r="V38">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB38">
         <v>42</v>
@@ -10108,22 +10108,22 @@
         <v>29</v>
       </c>
       <c r="V39">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z39">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA39">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB39">
         <v>33</v>
@@ -10351,22 +10351,22 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z40">
         <v>10</v>
       </c>
       <c r="AA40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AB40">
         <v>25</v>
@@ -10597,22 +10597,22 @@
         <v>27</v>
       </c>
       <c r="V41">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W41">
+        <v>7</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+      <c r="AA41">
         <v>13</v>
-      </c>
-      <c r="X41">
-        <v>14</v>
-      </c>
-      <c r="Y41">
-        <v>13</v>
-      </c>
-      <c r="Z41">
-        <v>12</v>
-      </c>
-      <c r="AA41">
-        <v>7</v>
       </c>
       <c r="AB41">
         <v>35</v>
@@ -10856,22 +10856,22 @@
         <v>22</v>
       </c>
       <c r="V42">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="W42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB42">
         <v>26</v>
@@ -11112,22 +11112,22 @@
         <v>34</v>
       </c>
       <c r="V43">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X43">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA43">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB43">
         <v>35</v>
@@ -11368,22 +11368,22 @@
         <v>36</v>
       </c>
       <c r="V44">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X44">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA44">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB44">
         <v>40</v>
@@ -11627,19 +11627,19 @@
         <v>29</v>
       </c>
       <c r="V45">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W45">
         <v>10</v>
       </c>
       <c r="X45">
+        <v>14</v>
+      </c>
+      <c r="Y45">
         <v>6</v>
       </c>
-      <c r="Y45">
-        <v>14</v>
-      </c>
       <c r="Z45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA45">
         <v>10</v>
@@ -11870,22 +11870,22 @@
         <v>42</v>
       </c>
       <c r="V46">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="W46">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y46">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z46">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA46">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB46">
         <v>39</v>
@@ -12121,22 +12121,22 @@
         <v>28</v>
       </c>
       <c r="V47">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W47">
         <v>10</v>
       </c>
       <c r="X47">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y47">
         <v>10</v>
       </c>
       <c r="Z47">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA47">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB47">
         <v>34</v>
@@ -12377,22 +12377,22 @@
         <v>35</v>
       </c>
       <c r="V48">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y48">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB48">
         <v>31</v>
@@ -12633,19 +12633,19 @@
         <v>38</v>
       </c>
       <c r="V49">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W49">
         <v>10</v>
       </c>
       <c r="X49">
+        <v>12</v>
+      </c>
+      <c r="Y49">
+        <v>9</v>
+      </c>
+      <c r="Z49">
         <v>8</v>
-      </c>
-      <c r="Y49">
-        <v>11</v>
-      </c>
-      <c r="Z49">
-        <v>12</v>
       </c>
       <c r="AA49">
         <v>10</v>
@@ -12879,22 +12879,22 @@
         <v>40</v>
       </c>
       <c r="V50">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W50">
+        <v>8</v>
+      </c>
+      <c r="X50">
         <v>12</v>
       </c>
-      <c r="X50">
-        <v>8</v>
-      </c>
       <c r="Y50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB50">
         <v>37</v>
@@ -13125,19 +13125,19 @@
         <v>26</v>
       </c>
       <c r="V51">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y51">
         <v>10</v>
       </c>
       <c r="Z51">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA51">
         <v>10</v>
@@ -13371,22 +13371,22 @@
         <v>20</v>
       </c>
       <c r="V52">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W52">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z52">
         <v>10</v>
       </c>
       <c r="AA52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB52">
         <v>32</v>
@@ -13622,19 +13622,19 @@
         <v>30</v>
       </c>
       <c r="V53">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W53">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X53">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y53">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z53">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA53">
         <v>10</v>
@@ -13868,22 +13868,22 @@
         <v>36</v>
       </c>
       <c r="V54">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W54">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X54">
         <v>10</v>
       </c>
       <c r="Y54">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z54">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB54">
         <v>26</v>
@@ -14127,22 +14127,22 @@
         <v>28</v>
       </c>
       <c r="V55">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W55">
         <v>10</v>
       </c>
       <c r="X55">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y55">
         <v>10</v>
       </c>
       <c r="Z55">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB55">
         <v>36</v>
@@ -14395,16 +14395,16 @@
         <v>10</v>
       </c>
       <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>7</v>
+      </c>
+      <c r="Z56">
+        <v>13</v>
+      </c>
+      <c r="AA56">
         <v>11</v>
-      </c>
-      <c r="Y56">
-        <v>13</v>
-      </c>
-      <c r="Z56">
-        <v>7</v>
-      </c>
-      <c r="AA56">
-        <v>9</v>
       </c>
       <c r="AB56">
         <v>32</v>
@@ -14645,16 +14645,16 @@
         <v>36</v>
       </c>
       <c r="V57">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="W57">
+        <v>12</v>
+      </c>
+      <c r="X57">
+        <v>13</v>
+      </c>
+      <c r="Y57">
         <v>8</v>
-      </c>
-      <c r="X57">
-        <v>7</v>
-      </c>
-      <c r="Y57">
-        <v>12</v>
       </c>
       <c r="Z57">
         <v>10</v>
@@ -14892,22 +14892,22 @@
         <v>38</v>
       </c>
       <c r="V58">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W58">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X58">
+        <v>9</v>
+      </c>
+      <c r="Y58">
+        <v>7</v>
+      </c>
+      <c r="Z58">
+        <v>6</v>
+      </c>
+      <c r="AA58">
         <v>11</v>
-      </c>
-      <c r="Y58">
-        <v>13</v>
-      </c>
-      <c r="Z58">
-        <v>14</v>
-      </c>
-      <c r="AA58">
-        <v>9</v>
       </c>
       <c r="AB58">
         <v>39</v>
@@ -15140,22 +15140,22 @@
         <v>52</v>
       </c>
       <c r="V59">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W59">
+        <v>16</v>
+      </c>
+      <c r="X59">
+        <v>16</v>
+      </c>
+      <c r="Y59">
+        <v>7</v>
+      </c>
+      <c r="Z59">
         <v>4</v>
       </c>
-      <c r="X59">
-        <v>4</v>
-      </c>
-      <c r="Y59">
-        <v>13</v>
-      </c>
-      <c r="Z59">
-        <v>16</v>
-      </c>
       <c r="AA59">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB59">
         <v>31</v>
@@ -15387,22 +15387,22 @@
         <v>30</v>
       </c>
       <c r="V60">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z60">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA60">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB60">
         <v>34</v>
@@ -15646,22 +15646,22 @@
         <v>35</v>
       </c>
       <c r="V61">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="W61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y61">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z61">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA61">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB61">
         <v>37</v>
@@ -15892,22 +15892,22 @@
         <v>44</v>
       </c>
       <c r="V62">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W62">
+        <v>12</v>
+      </c>
+      <c r="X62">
+        <v>13</v>
+      </c>
+      <c r="Y62">
+        <v>9</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62">
         <v>8</v>
-      </c>
-      <c r="X62">
-        <v>7</v>
-      </c>
-      <c r="Y62">
-        <v>11</v>
-      </c>
-      <c r="Z62">
-        <v>16</v>
-      </c>
-      <c r="AA62">
-        <v>12</v>
       </c>
       <c r="AB62">
         <v>34</v>
@@ -16140,7 +16140,7 @@
         <v>37</v>
       </c>
       <c r="V63">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W63">
         <v>10</v>
@@ -16149,10 +16149,10 @@
         <v>10</v>
       </c>
       <c r="Y63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AA63">
         <v>10</v>
@@ -16396,16 +16396,16 @@
         <v>26</v>
       </c>
       <c r="V64">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W64">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X64">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z64">
         <v>10</v>
@@ -16636,22 +16636,22 @@
         <v>17</v>
       </c>
       <c r="V65">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="W65">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X65">
         <v>10</v>
       </c>
       <c r="Y65">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z65">
+        <v>5</v>
+      </c>
+      <c r="AA65">
         <v>15</v>
-      </c>
-      <c r="AA65">
-        <v>5</v>
       </c>
       <c r="AB65">
         <v>50</v>
@@ -16895,22 +16895,22 @@
         <v>36</v>
       </c>
       <c r="V66">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W66">
         <v>10</v>
       </c>
       <c r="X66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y66">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z66">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AA66">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB66">
         <v>33</v>
@@ -17138,22 +17138,22 @@
         <v>45</v>
       </c>
       <c r="V67">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="W67">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X67">
         <v>10</v>
       </c>
       <c r="Y67">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z67">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA67">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AB67">
         <v>34</v>
@@ -17381,22 +17381,22 @@
         <v>23</v>
       </c>
       <c r="V68">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W68">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X68">
         <v>10</v>
       </c>
       <c r="Y68">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z68">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA68">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB68">
         <v>23</v>
@@ -17637,22 +17637,22 @@
         <v>27</v>
       </c>
       <c r="V69">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W69">
         <v>10</v>
       </c>
       <c r="X69">
+        <v>12</v>
+      </c>
+      <c r="Y69">
+        <v>9</v>
+      </c>
+      <c r="Z69">
         <v>8</v>
       </c>
-      <c r="Y69">
-        <v>11</v>
-      </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>12</v>
-      </c>
-      <c r="AA69">
-        <v>8</v>
       </c>
       <c r="AB69">
         <v>36</v>
@@ -17880,22 +17880,22 @@
         <v>38</v>
       </c>
       <c r="V70">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W70">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y70">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Z70">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB70">
         <v>28</v>
@@ -18123,22 +18123,22 @@
         <v>36</v>
       </c>
       <c r="V71">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W71">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X71">
+        <v>8</v>
+      </c>
+      <c r="Y71">
+        <v>6</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+      <c r="AA71">
         <v>12</v>
-      </c>
-      <c r="Y71">
-        <v>14</v>
-      </c>
-      <c r="Z71">
-        <v>12</v>
-      </c>
-      <c r="AA71">
-        <v>8</v>
       </c>
       <c r="AB71">
         <v>30</v>
@@ -18363,22 +18363,22 @@
         <v>10</v>
       </c>
       <c r="V72">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W72">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X72">
+        <v>13</v>
+      </c>
+      <c r="Y72">
         <v>7</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
+        <v>15</v>
+      </c>
+      <c r="AA72">
         <v>13</v>
-      </c>
-      <c r="Z72">
-        <v>5</v>
-      </c>
-      <c r="AA72">
-        <v>7</v>
       </c>
       <c r="AB72">
         <v>27</v>
@@ -18617,19 +18617,19 @@
         <v>50</v>
       </c>
       <c r="W73">
+        <v>8</v>
+      </c>
+      <c r="X73">
         <v>12</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
+        <v>7</v>
+      </c>
+      <c r="Z73">
         <v>8</v>
       </c>
-      <c r="Y73">
-        <v>13</v>
-      </c>
-      <c r="Z73">
-        <v>12</v>
-      </c>
       <c r="AA73">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB73">
         <v>39</v>
@@ -18876,22 +18876,22 @@
         <v>26</v>
       </c>
       <c r="V74">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W74">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X74">
+        <v>12</v>
+      </c>
+      <c r="Y74">
+        <v>11</v>
+      </c>
+      <c r="Z74">
         <v>8</v>
       </c>
-      <c r="Y74">
-        <v>9</v>
-      </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>12</v>
-      </c>
-      <c r="AA74">
-        <v>8</v>
       </c>
       <c r="AB74">
         <v>35</v>
@@ -19127,22 +19127,22 @@
         <v>31</v>
       </c>
       <c r="V75">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W75">
+        <v>12</v>
+      </c>
+      <c r="X75">
+        <v>14</v>
+      </c>
+      <c r="Y75">
+        <v>11</v>
+      </c>
+      <c r="Z75">
+        <v>11</v>
+      </c>
+      <c r="AA75">
         <v>8</v>
-      </c>
-      <c r="X75">
-        <v>6</v>
-      </c>
-      <c r="Y75">
-        <v>9</v>
-      </c>
-      <c r="Z75">
-        <v>9</v>
-      </c>
-      <c r="AA75">
-        <v>12</v>
       </c>
       <c r="AB75">
         <v>27</v>
@@ -19378,22 +19378,22 @@
         <v>34</v>
       </c>
       <c r="V76">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W76">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X76">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y76">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>6</v>
+      </c>
+      <c r="AA76">
         <v>15</v>
-      </c>
-      <c r="Z76">
-        <v>14</v>
-      </c>
-      <c r="AA76">
-        <v>5</v>
       </c>
       <c r="AB76">
         <v>48</v>
@@ -19618,7 +19618,7 @@
         <v>39</v>
       </c>
       <c r="V77">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="W77">
         <v>10</v>
@@ -19627,13 +19627,13 @@
         <v>10</v>
       </c>
       <c r="Y77">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Z77">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA77">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AB77">
         <v>38</v>
@@ -19877,22 +19877,22 @@
         <v>31</v>
       </c>
       <c r="V78">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="W78">
         <v>10</v>
       </c>
       <c r="X78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y78">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z78">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB78">
         <v>38</v>
@@ -20136,22 +20136,22 @@
         <v>38</v>
       </c>
       <c r="V79">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y79">
         <v>10</v>
       </c>
       <c r="Z79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB79">
         <v>29</v>
@@ -20393,22 +20393,22 @@
         <v>21</v>
       </c>
       <c r="V80">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W80">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y80">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z80">
         <v>10</v>
       </c>
       <c r="AA80">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AB80">
         <v>45</v>
@@ -20652,22 +20652,22 @@
         <v>35</v>
       </c>
       <c r="V81">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="W81">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="X81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y81">
+        <v>7</v>
+      </c>
+      <c r="Z81">
+        <v>6</v>
+      </c>
+      <c r="AA81">
         <v>13</v>
-      </c>
-      <c r="Z81">
-        <v>14</v>
-      </c>
-      <c r="AA81">
-        <v>7</v>
       </c>
       <c r="AB81">
         <v>32</v>
@@ -20895,22 +20895,22 @@
         <v>39</v>
       </c>
       <c r="V82">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="W82">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X82">
         <v>10</v>
       </c>
       <c r="Y82">
+        <v>5</v>
+      </c>
+      <c r="Z82">
+        <v>4</v>
+      </c>
+      <c r="AA82">
         <v>15</v>
-      </c>
-      <c r="Z82">
-        <v>16</v>
-      </c>
-      <c r="AA82">
-        <v>5</v>
       </c>
       <c r="AB82">
         <v>38</v>

--- a/Output/dTot.xlsx
+++ b/Output/dTot.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD82"/>
+  <dimension ref="A1:CD83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16821,7 +16821,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -16837,29 +16837,16 @@
         </is>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="G66">
-        <v>8</v>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Bingo</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>MoreThan1Month</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="K66">
@@ -16871,7 +16858,7 @@
         </is>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -16882,205 +16869,202 @@
       <c r="P66">
         <v>1</v>
       </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
       <c r="S66">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="T66">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="U66">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="V66">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="W66">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X66">
         <v>11</v>
       </c>
       <c r="Y66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB66">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AC66">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AD66">
         <v>6</v>
       </c>
       <c r="AE66">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="AF66">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG66">
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>0.280653747043665</v>
+        <v>0.164451827242525</v>
       </c>
       <c r="AI66">
-        <v>-0.0451607892971869</v>
+        <v>0.021594684385383</v>
       </c>
       <c r="AJ66">
-        <v>-0.050526315789474</v>
+        <v>0.021594684385383</v>
       </c>
       <c r="AK66">
-        <v>0.9577464788732391</v>
+        <v>1</v>
       </c>
       <c r="AL66">
-        <v>0.952380952380952</v>
+        <v>1</v>
       </c>
       <c r="AM66">
-        <v>0.84</v>
+        <v>0.906976744186046</v>
       </c>
       <c r="AN66">
-        <v>0.789473684210526</v>
+        <v>0.9285714285714291</v>
       </c>
       <c r="AO66">
-        <v>0.501586408450704</v>
+        <v>0.321083516483516</v>
       </c>
       <c r="AP66">
-        <v>0.502694761904762</v>
+        <v>0.337403392857143</v>
       </c>
       <c r="AQ66">
-        <v>0.5109567</v>
+        <v>0.306510465116279</v>
       </c>
       <c r="AR66">
-        <v>0.424619605263158</v>
+        <v>0.325754107142857</v>
       </c>
       <c r="AS66">
-        <v>0.893486267605634</v>
+        <v>0.352279120879121</v>
       </c>
       <c r="AT66">
-        <v>0.936979285714286</v>
+        <v>0.358163392857143</v>
       </c>
       <c r="AU66">
-        <v>0.8082209</v>
+        <v>0.371992325581395</v>
       </c>
       <c r="AV66">
-        <v>0.8395969736842101</v>
+        <v>0.396403928571429</v>
       </c>
       <c r="AW66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX66">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ66">
         <v>8</v>
       </c>
       <c r="BA66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB66">
         <v>8</v>
       </c>
       <c r="BC66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BE66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF66">
         <v>1</v>
       </c>
       <c r="BG66">
-        <v>0.520373027259684</v>
+        <v>0.108427522481643</v>
       </c>
       <c r="BH66">
-        <v>-0.07962697274031599</v>
+        <v>0.0594079146385069</v>
       </c>
       <c r="BI66">
-        <v>-0.08943089430894299</v>
+        <v>0.0295698924731189</v>
       </c>
       <c r="BJ66">
-        <v>0.976470588235294</v>
+        <v>0.971014492753623</v>
       </c>
       <c r="BK66">
-        <v>0.966666666666667</v>
+        <v>0.941176470588235</v>
       </c>
       <c r="BL66">
-        <v>0.75609756097561</v>
+        <v>0.887096774193548</v>
       </c>
       <c r="BM66">
-        <v>0.666666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="BN66">
-        <v>0.647028470588235</v>
+        <v>0.426005942028986</v>
       </c>
       <c r="BO66">
-        <v>0.7967505</v>
+        <v>0.464763676470588</v>
       </c>
       <c r="BP66">
-        <v>0.604191707317073</v>
+        <v>0.38989</v>
       </c>
       <c r="BQ66">
-        <v>0.769600833333333</v>
+        <v>0.366779791666667</v>
       </c>
       <c r="BR66">
-        <v>0.814530823529412</v>
+        <v>0.599399202898551</v>
       </c>
       <c r="BS66">
-        <v>0.8816413333333331</v>
+        <v>0.631939705882353</v>
       </c>
       <c r="BT66">
-        <v>0.731000609756098</v>
+        <v>0.589322983870968</v>
       </c>
       <c r="BU66">
-        <v>0.817059166666667</v>
+        <v>0.543393541666667</v>
       </c>
       <c r="BV66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BW66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BX66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BY66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BZ66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CA66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CB66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CC66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CD66">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -17088,7 +17072,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -17103,9 +17087,22 @@
           <t>Student</t>
         </is>
       </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Bingo</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>MoreThan1Month</t>
         </is>
       </c>
       <c r="K67">
@@ -17117,7 +17114,7 @@
         </is>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -17128,202 +17125,205 @@
       <c r="P67">
         <v>1</v>
       </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
       <c r="S67">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="T67">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U67">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V67">
+        <v>46</v>
+      </c>
+      <c r="W67">
+        <v>10</v>
+      </c>
+      <c r="X67">
+        <v>11</v>
+      </c>
+      <c r="Y67">
+        <v>7</v>
+      </c>
+      <c r="Z67">
+        <v>6</v>
+      </c>
+      <c r="AA67">
+        <v>12</v>
+      </c>
+      <c r="AB67">
+        <v>33</v>
+      </c>
+      <c r="AC67">
         <v>29</v>
-      </c>
-      <c r="W67">
-        <v>6</v>
-      </c>
-      <c r="X67">
-        <v>10</v>
-      </c>
-      <c r="Y67">
-        <v>4</v>
-      </c>
-      <c r="Z67">
-        <v>4</v>
-      </c>
-      <c r="AA67">
-        <v>5</v>
-      </c>
-      <c r="AB67">
-        <v>34</v>
-      </c>
-      <c r="AC67">
-        <v>28</v>
       </c>
       <c r="AD67">
         <v>6</v>
       </c>
       <c r="AE67">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="AF67">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG67">
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>0.084061771561772</v>
+        <v>0.280653747043665</v>
       </c>
       <c r="AI67">
-        <v>0.262092074592074</v>
+        <v>-0.0451607892971869</v>
       </c>
       <c r="AJ67">
-        <v>0.110576923076923</v>
+        <v>-0.050526315789474</v>
       </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0.9577464788732391</v>
       </c>
       <c r="AL67">
-        <v>0.848484848484849</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="AM67">
-        <v>0.826923076923077</v>
+        <v>0.84</v>
       </c>
       <c r="AN67">
-        <v>0.9375</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="AO67">
-        <v>0.34113698630137</v>
+        <v>0.501586408450704</v>
       </c>
       <c r="AP67">
-        <v>0.374727272727273</v>
+        <v>0.502694761904762</v>
       </c>
       <c r="AQ67">
-        <v>0.329480769230769</v>
+        <v>0.5109567</v>
       </c>
       <c r="AR67">
-        <v>0.31028125</v>
+        <v>0.424619605263158</v>
       </c>
       <c r="AS67">
-        <v>0.516520547945206</v>
+        <v>0.893486267605634</v>
       </c>
       <c r="AT67">
-        <v>0.525030303030303</v>
+        <v>0.936979285714286</v>
       </c>
       <c r="AU67">
-        <v>0.457942307692308</v>
+        <v>0.8082209</v>
       </c>
       <c r="AV67">
-        <v>0.5045625</v>
+        <v>0.8395969736842101</v>
       </c>
       <c r="AW67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AZ67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BD67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BE67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF67">
         <v>1</v>
       </c>
       <c r="BG67">
-        <v>0.071087216248507</v>
+        <v>0.520373027259684</v>
       </c>
       <c r="BH67">
-        <v>0.219235364396655</v>
+        <v>-0.07962697274031599</v>
       </c>
       <c r="BI67">
-        <v>0.071087216248507</v>
+        <v>-0.08943089430894299</v>
       </c>
       <c r="BJ67">
-        <v>1</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="BK67">
-        <v>0.851851851851852</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="BL67">
-        <v>0.854838709677419</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="BM67">
-        <v>0.925925925925926</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="BN67">
-        <v>0.466506849315068</v>
+        <v>0.647028470588235</v>
       </c>
       <c r="BO67">
-        <v>0.460851851851852</v>
+        <v>0.7967505</v>
       </c>
       <c r="BP67">
-        <v>0.424548387096774</v>
+        <v>0.604191707317073</v>
       </c>
       <c r="BQ67">
-        <v>0.411037037037037</v>
+        <v>0.769600833333333</v>
       </c>
       <c r="BR67">
-        <v>0.664547945205479</v>
+        <v>0.814530823529412</v>
       </c>
       <c r="BS67">
-        <v>0.717444444444444</v>
+        <v>0.8816413333333331</v>
       </c>
       <c r="BT67">
-        <v>0.679258064516129</v>
+        <v>0.731000609756098</v>
       </c>
       <c r="BU67">
-        <v>0.66837037037037</v>
+        <v>0.817059166666667</v>
       </c>
       <c r="BV67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BW67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BX67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BY67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BZ67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CA67">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CB67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CC67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CD67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         </is>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         <v>1</v>
       </c>
       <c r="S68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U68">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="V68">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="W68">
         <v>6</v>
@@ -17390,183 +17390,183 @@
         <v>10</v>
       </c>
       <c r="Y68">
+        <v>4</v>
+      </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
+      <c r="AA68">
         <v>5</v>
       </c>
-      <c r="Z68">
-        <v>7</v>
-      </c>
-      <c r="AA68">
-        <v>12</v>
-      </c>
       <c r="AB68">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC68">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD68">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE68">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="AF68">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG68">
         <v>1</v>
       </c>
       <c r="AH68">
-        <v>0.843109668109668</v>
+        <v>0.084061771561772</v>
       </c>
       <c r="AI68">
-        <v>-0.18466810966811</v>
+        <v>0.262092074592074</v>
       </c>
       <c r="AJ68">
-        <v>-0.11919191919192</v>
+        <v>0.110576923076923</v>
       </c>
       <c r="AK68">
-        <v>0.892857142857143</v>
+        <v>1</v>
       </c>
       <c r="AL68">
-        <v>0.958333333333333</v>
+        <v>0.848484848484849</v>
       </c>
       <c r="AM68">
-        <v>0.5636363636363641</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="AN68">
-        <v>0.444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="AO68">
-        <v>0.429747678571429</v>
+        <v>0.34113698630137</v>
       </c>
       <c r="AP68">
-        <v>0.42077625</v>
+        <v>0.374727272727273</v>
       </c>
       <c r="AQ68">
-        <v>0.384656545454545</v>
+        <v>0.329480769230769</v>
       </c>
       <c r="AR68">
-        <v>0.427631296296296</v>
+        <v>0.31028125</v>
       </c>
       <c r="AS68">
-        <v>0.5570683333333331</v>
+        <v>0.516520547945206</v>
       </c>
       <c r="AT68">
-        <v>0.6239925</v>
+        <v>0.525030303030303</v>
       </c>
       <c r="AU68">
-        <v>0.629284727272727</v>
+        <v>0.457942307692308</v>
       </c>
       <c r="AV68">
-        <v>0.65490537037037</v>
+        <v>0.5045625</v>
       </c>
       <c r="AW68">
+        <v>1</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
         <v>2</v>
       </c>
-      <c r="AX68">
-        <v>3</v>
-      </c>
-      <c r="AY68">
-        <v>5</v>
-      </c>
       <c r="AZ68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BA68">
         <v>9</v>
       </c>
       <c r="BB68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BF68">
         <v>1</v>
       </c>
       <c r="BG68">
-        <v>0.362054519451627</v>
+        <v>0.071087216248507</v>
       </c>
       <c r="BH68">
-        <v>0.0799228580096211</v>
+        <v>0.219235364396655</v>
       </c>
       <c r="BI68">
-        <v>0.053948832035595</v>
+        <v>0.071087216248507</v>
       </c>
       <c r="BJ68">
-        <v>0.7532467532467531</v>
+        <v>1</v>
       </c>
       <c r="BK68">
-        <v>0.727272727272727</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="BL68">
-        <v>0.532258064516129</v>
+        <v>0.854838709677419</v>
       </c>
       <c r="BM68">
-        <v>0.586206896551724</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="BN68">
-        <v>0.504392922077922</v>
+        <v>0.466506849315068</v>
       </c>
       <c r="BO68">
-        <v>0.571017045454545</v>
+        <v>0.460851851851852</v>
       </c>
       <c r="BP68">
-        <v>0.480687661290323</v>
+        <v>0.424548387096774</v>
       </c>
       <c r="BQ68">
-        <v>0.472697413793103</v>
+        <v>0.411037037037037</v>
       </c>
       <c r="BR68">
-        <v>0.572653831168831</v>
+        <v>0.664547945205479</v>
       </c>
       <c r="BS68">
-        <v>0.759075454545455</v>
+        <v>0.717444444444444</v>
       </c>
       <c r="BT68">
-        <v>0.673839112903226</v>
+        <v>0.679258064516129</v>
       </c>
       <c r="BU68">
-        <v>0.647445172413793</v>
+        <v>0.66837037037037</v>
       </c>
       <c r="BV68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BX68">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BY68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ68">
         <v>9</v>
       </c>
       <c r="CA68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CB68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC68">
         <v>1</v>
       </c>
       <c r="CD68">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -17574,255 +17574,242 @@
         </is>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Earlier</t>
+        </is>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
         <v>15</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="G69">
+      <c r="U69">
+        <v>23</v>
+      </c>
+      <c r="V69">
+        <v>40</v>
+      </c>
+      <c r="W69">
+        <v>6</v>
+      </c>
+      <c r="X69">
         <v>10</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Carte</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>ThisWeek</t>
-        </is>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Earlier</t>
-        </is>
-      </c>
-      <c r="M69">
-        <v>8</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="S69">
-        <v>21</v>
-      </c>
-      <c r="T69">
-        <v>23</v>
-      </c>
-      <c r="U69">
-        <v>27</v>
-      </c>
-      <c r="V69">
-        <v>51</v>
-      </c>
-      <c r="W69">
-        <v>10</v>
-      </c>
-      <c r="X69">
-        <v>12</v>
-      </c>
       <c r="Y69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA69">
         <v>12</v>
       </c>
       <c r="AB69">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AC69">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AD69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE69">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AF69">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG69">
         <v>1</v>
       </c>
       <c r="AH69">
-        <v>-0.188194444444445</v>
+        <v>0.843109668109668</v>
       </c>
       <c r="AI69">
-        <v>-0.167361111111111</v>
+        <v>-0.18466810966811</v>
       </c>
       <c r="AJ69">
-        <v>-0.111111111111111</v>
+        <v>-0.11919191919192</v>
       </c>
       <c r="AK69">
-        <v>0.6</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="AL69">
-        <v>0.65625</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="AM69">
-        <v>0.777777777777778</v>
+        <v>0.5636363636363641</v>
       </c>
       <c r="AN69">
-        <v>0.666666666666667</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="AO69">
-        <v>0.6098053</v>
+        <v>0.429747678571429</v>
       </c>
       <c r="AP69">
-        <v>0.590856875</v>
+        <v>0.42077625</v>
       </c>
       <c r="AQ69">
-        <v>0.454561851851852</v>
+        <v>0.384656545454545</v>
       </c>
       <c r="AR69">
-        <v>0.501987222222222</v>
+        <v>0.427631296296296</v>
       </c>
       <c r="AS69">
-        <v>0.4003516</v>
+        <v>0.5570683333333331</v>
       </c>
       <c r="AT69">
-        <v>0.5090528125</v>
+        <v>0.6239925</v>
       </c>
       <c r="AU69">
-        <v>0.502250277777778</v>
+        <v>0.629284727272727</v>
       </c>
       <c r="AV69">
-        <v>0.508984722222222</v>
+        <v>0.65490537037037</v>
       </c>
       <c r="AW69">
+        <v>2</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>5</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>9</v>
+      </c>
+      <c r="BB69">
         <v>7</v>
       </c>
-      <c r="AX69">
-        <v>9</v>
-      </c>
-      <c r="AY69">
-        <v>8</v>
-      </c>
-      <c r="AZ69">
+      <c r="BC69">
+        <v>2</v>
+      </c>
+      <c r="BD69">
         <v>3</v>
       </c>
-      <c r="BA69">
-        <v>2</v>
-      </c>
-      <c r="BB69">
-        <v>2</v>
-      </c>
-      <c r="BC69">
+      <c r="BE69">
+        <v>4</v>
+      </c>
+      <c r="BF69">
+        <v>1</v>
+      </c>
+      <c r="BG69">
+        <v>0.362054519451627</v>
+      </c>
+      <c r="BH69">
+        <v>0.0799228580096211</v>
+      </c>
+      <c r="BI69">
+        <v>0.053948832035595</v>
+      </c>
+      <c r="BJ69">
+        <v>0.7532467532467531</v>
+      </c>
+      <c r="BK69">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="BL69">
+        <v>0.532258064516129</v>
+      </c>
+      <c r="BM69">
+        <v>0.586206896551724</v>
+      </c>
+      <c r="BN69">
+        <v>0.504392922077922</v>
+      </c>
+      <c r="BO69">
+        <v>0.571017045454545</v>
+      </c>
+      <c r="BP69">
+        <v>0.480687661290323</v>
+      </c>
+      <c r="BQ69">
+        <v>0.472697413793103</v>
+      </c>
+      <c r="BR69">
+        <v>0.572653831168831</v>
+      </c>
+      <c r="BS69">
+        <v>0.759075454545455</v>
+      </c>
+      <c r="BT69">
+        <v>0.673839112903226</v>
+      </c>
+      <c r="BU69">
+        <v>0.647445172413793</v>
+      </c>
+      <c r="BV69">
         <v>5</v>
       </c>
-      <c r="BD69">
-        <v>6</v>
-      </c>
-      <c r="BE69">
-        <v>6</v>
-      </c>
-      <c r="BF69">
-        <v>1</v>
-      </c>
-      <c r="BG69">
-        <v>0.339763177998472</v>
-      </c>
-      <c r="BH69">
-        <v>-0.19270435446906</v>
-      </c>
-      <c r="BI69">
-        <v>-0.107142857142857</v>
-      </c>
-      <c r="BJ69">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="BK69">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="BL69">
-        <v>0.75</v>
-      </c>
-      <c r="BM69">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="BN69">
-        <v>0.325752941176471</v>
-      </c>
-      <c r="BO69">
-        <v>0.349848333333333</v>
-      </c>
-      <c r="BP69">
-        <v>0.2839825</v>
-      </c>
-      <c r="BQ69">
-        <v>0.275409642857143</v>
-      </c>
-      <c r="BR69">
-        <v>0.593029044117647</v>
-      </c>
-      <c r="BS69">
-        <v>0.585726515151515</v>
-      </c>
-      <c r="BT69">
-        <v>0.471826944444444</v>
-      </c>
-      <c r="BU69">
-        <v>0.3755</v>
-      </c>
-      <c r="BV69">
-        <v>8</v>
-      </c>
       <c r="BW69">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BX69">
         <v>7</v>
       </c>
       <c r="BY69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BZ69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CA69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CB69">
         <v>3</v>
       </c>
       <c r="CC69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD69">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -17830,11 +17817,11 @@
         </is>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E70">
@@ -17845,9 +17832,22 @@
           <t>Student</t>
         </is>
       </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Carte</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ThisWeek</t>
         </is>
       </c>
       <c r="K70">
@@ -17859,7 +17859,7 @@
         </is>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -17871,201 +17871,201 @@
         <v>1</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="T70">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U70">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="V70">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W70">
+        <v>10</v>
+      </c>
+      <c r="X70">
         <v>12</v>
       </c>
-      <c r="X70">
-        <v>13</v>
-      </c>
       <c r="Y70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z70">
+        <v>8</v>
+      </c>
+      <c r="AA70">
         <v>12</v>
       </c>
-      <c r="AA70">
-        <v>9</v>
-      </c>
       <c r="AB70">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AC70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AD70">
         <v>6</v>
       </c>
       <c r="AE70">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="AF70">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AG70">
         <v>1</v>
       </c>
       <c r="AH70">
-        <v>0.507520837371583</v>
+        <v>-0.188194444444445</v>
       </c>
       <c r="AI70">
-        <v>-0.217154487303741</v>
+        <v>-0.167361111111111</v>
       </c>
       <c r="AJ70">
-        <v>-0.172998643147897</v>
+        <v>-0.111111111111111</v>
       </c>
       <c r="AK70">
-        <v>0.727272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="AL70">
-        <v>0.771428571428571</v>
+        <v>0.65625</v>
       </c>
       <c r="AM70">
-        <v>0.582089552238806</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="AN70">
-        <v>0.409090909090909</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="AO70">
-        <v>0.373332121212121</v>
+        <v>0.6098053</v>
       </c>
       <c r="AP70">
-        <v>0.366079</v>
+        <v>0.590856875</v>
       </c>
       <c r="AQ70">
-        <v>0.350058059701493</v>
+        <v>0.454561851851852</v>
       </c>
       <c r="AR70">
-        <v>0.365802272727273</v>
+        <v>0.501987222222222</v>
       </c>
       <c r="AS70">
-        <v>0.287514318181818</v>
+        <v>0.4003516</v>
       </c>
       <c r="AT70">
-        <v>0.288872</v>
+        <v>0.5090528125</v>
       </c>
       <c r="AU70">
-        <v>0.297014925373134</v>
+        <v>0.502250277777778</v>
       </c>
       <c r="AV70">
-        <v>0.289679772727273</v>
+        <v>0.508984722222222</v>
       </c>
       <c r="AW70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX70">
+        <v>9</v>
+      </c>
+      <c r="AY70">
+        <v>8</v>
+      </c>
+      <c r="AZ70">
+        <v>3</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>5</v>
+      </c>
+      <c r="BD70">
+        <v>6</v>
+      </c>
+      <c r="BE70">
+        <v>6</v>
+      </c>
+      <c r="BF70">
+        <v>1</v>
+      </c>
+      <c r="BG70">
+        <v>0.339763177998472</v>
+      </c>
+      <c r="BH70">
+        <v>-0.19270435446906</v>
+      </c>
+      <c r="BI70">
+        <v>-0.107142857142857</v>
+      </c>
+      <c r="BJ70">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="BK70">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="BL70">
+        <v>0.75</v>
+      </c>
+      <c r="BM70">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="BN70">
+        <v>0.325752941176471</v>
+      </c>
+      <c r="BO70">
+        <v>0.349848333333333</v>
+      </c>
+      <c r="BP70">
+        <v>0.2839825</v>
+      </c>
+      <c r="BQ70">
+        <v>0.275409642857143</v>
+      </c>
+      <c r="BR70">
+        <v>0.593029044117647</v>
+      </c>
+      <c r="BS70">
+        <v>0.585726515151515</v>
+      </c>
+      <c r="BT70">
+        <v>0.471826944444444</v>
+      </c>
+      <c r="BU70">
+        <v>0.3755</v>
+      </c>
+      <c r="BV70">
+        <v>8</v>
+      </c>
+      <c r="BW70">
+        <v>8</v>
+      </c>
+      <c r="BX70">
+        <v>7</v>
+      </c>
+      <c r="BY70">
+        <v>5</v>
+      </c>
+      <c r="BZ70">
+        <v>5</v>
+      </c>
+      <c r="CA70">
+        <v>5</v>
+      </c>
+      <c r="CB70">
+        <v>3</v>
+      </c>
+      <c r="CC70">
+        <v>3</v>
+      </c>
+      <c r="CD70">
         <v>4</v>
-      </c>
-      <c r="AY70">
-        <v>7</v>
-      </c>
-      <c r="AZ70">
-        <v>9</v>
-      </c>
-      <c r="BA70">
-        <v>7</v>
-      </c>
-      <c r="BB70">
-        <v>6</v>
-      </c>
-      <c r="BC70">
-        <v>1</v>
-      </c>
-      <c r="BD70">
-        <v>1</v>
-      </c>
-      <c r="BE70">
-        <v>2</v>
-      </c>
-      <c r="BF70">
-        <v>0</v>
-      </c>
-      <c r="BG70">
-        <v>-0.0371488274901329</v>
-      </c>
-      <c r="BH70">
-        <v>-0.037148827490133</v>
-      </c>
-      <c r="BI70">
-        <v>0.013698630136986</v>
-      </c>
-      <c r="BJ70">
-        <v>0.9491525423728811</v>
-      </c>
-      <c r="BK70">
-        <v>1</v>
-      </c>
-      <c r="BL70">
-        <v>0.986301369863014</v>
-      </c>
-      <c r="BM70">
-        <v>1</v>
-      </c>
-      <c r="BN70">
-        <v>0.408887457627119</v>
-      </c>
-      <c r="BO70">
-        <v>0.446438108108108</v>
-      </c>
-      <c r="BP70">
-        <v>0.382658219178082</v>
-      </c>
-      <c r="BQ70">
-        <v>0.445823571428571</v>
-      </c>
-      <c r="BR70">
-        <v>0.551399491525424</v>
-      </c>
-      <c r="BS70">
-        <v>0.54739</v>
-      </c>
-      <c r="BT70">
-        <v>0.501494794520548</v>
-      </c>
-      <c r="BU70">
-        <v>0.532622142857143</v>
-      </c>
-      <c r="BV70">
-        <v>2</v>
-      </c>
-      <c r="BW70">
-        <v>2</v>
-      </c>
-      <c r="BX70">
-        <v>4</v>
-      </c>
-      <c r="BY70">
-        <v>2</v>
-      </c>
-      <c r="BZ70">
-        <v>9</v>
-      </c>
-      <c r="CA70">
-        <v>7</v>
-      </c>
-      <c r="CB70">
-        <v>2</v>
-      </c>
-      <c r="CC70">
-        <v>1</v>
-      </c>
-      <c r="CD70">
-        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -18114,193 +18114,193 @@
         <v>1</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="U71">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V71">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="W71">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y71">
         <v>6</v>
       </c>
       <c r="Z71">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB71">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE71">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="AF71">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AG71">
         <v>1</v>
       </c>
       <c r="AH71">
-        <v>-0.0224598930481287</v>
+        <v>0.507520837371583</v>
       </c>
       <c r="AI71">
-        <v>0.09518716577540071</v>
+        <v>-0.217154487303741</v>
       </c>
       <c r="AJ71">
-        <v>-0.904812834224599</v>
+        <v>-0.172998643147897</v>
       </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="AL71">
+        <v>0.771428571428571</v>
+      </c>
+      <c r="AM71">
+        <v>0.582089552238806</v>
+      </c>
+      <c r="AN71">
+        <v>0.409090909090909</v>
+      </c>
+      <c r="AO71">
+        <v>0.373332121212121</v>
+      </c>
+      <c r="AP71">
+        <v>0.366079</v>
+      </c>
+      <c r="AQ71">
+        <v>0.350058059701493</v>
+      </c>
+      <c r="AR71">
+        <v>0.365802272727273</v>
+      </c>
+      <c r="AS71">
+        <v>0.287514318181818</v>
+      </c>
+      <c r="AT71">
+        <v>0.288872</v>
+      </c>
+      <c r="AU71">
+        <v>0.297014925373134</v>
+      </c>
+      <c r="AV71">
+        <v>0.289679772727273</v>
+      </c>
+      <c r="AW71">
+        <v>1</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>6</v>
+      </c>
+      <c r="BC71">
+        <v>1</v>
+      </c>
+      <c r="BD71">
+        <v>1</v>
+      </c>
+      <c r="BE71">
+        <v>2</v>
+      </c>
+      <c r="BF71">
         <v>0</v>
       </c>
-      <c r="AM71">
-        <v>0.963636363636364</v>
-      </c>
-      <c r="AN71">
-        <v>0.0588235294117647</v>
-      </c>
-      <c r="AO71">
-        <v>0.79712270022</v>
-      </c>
-      <c r="AP71">
-        <v>0.7799388633636361</v>
-      </c>
-      <c r="AQ71">
-        <v>0.778939091</v>
-      </c>
-      <c r="AR71">
-        <v>0.8112570587058821</v>
-      </c>
-      <c r="AS71">
-        <v>1.02155919998</v>
-      </c>
-      <c r="AT71">
-        <v>0.928667727181818</v>
-      </c>
-      <c r="AU71">
-        <v>0.811062999909091</v>
-      </c>
-      <c r="AV71">
-        <v>0.859622646764706</v>
-      </c>
-      <c r="AW71">
-        <v>4</v>
-      </c>
-      <c r="AX71">
-        <v>5</v>
-      </c>
-      <c r="AY71">
-        <v>6</v>
-      </c>
-      <c r="AZ71">
-        <v>8</v>
-      </c>
-      <c r="BA71">
-        <v>8</v>
-      </c>
-      <c r="BB71">
-        <v>8</v>
-      </c>
-      <c r="BC71">
-        <v>5</v>
-      </c>
-      <c r="BD71">
-        <v>6</v>
-      </c>
-      <c r="BE71">
-        <v>7</v>
-      </c>
-      <c r="BF71">
-        <v>1</v>
-      </c>
       <c r="BG71">
-        <v>0.013423831070889</v>
+        <v>-0.0371488274901329</v>
       </c>
       <c r="BH71">
-        <v>0.182654600301659</v>
+        <v>-0.037148827490133</v>
       </c>
       <c r="BI71">
-        <v>-0.701960784313726</v>
+        <v>0.013698630136986</v>
       </c>
       <c r="BJ71">
-        <v>1</v>
+        <v>0.9491525423728811</v>
       </c>
       <c r="BK71">
-        <v>0.115384615384615</v>
+        <v>1</v>
       </c>
       <c r="BL71">
-        <v>0.901960784313726</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="BM71">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="BN71">
-        <v>0.909891226283019</v>
+        <v>0.408887457627119</v>
       </c>
       <c r="BO71">
-        <v>0.960323846307692</v>
+        <v>0.446438108108108</v>
       </c>
       <c r="BP71">
-        <v>0.9007646078431371</v>
+        <v>0.382658219178082</v>
       </c>
       <c r="BQ71">
-        <v>0.832147666933333</v>
+        <v>0.445823571428571</v>
       </c>
       <c r="BR71">
-        <v>0.954154622584906</v>
+        <v>0.551399491525424</v>
       </c>
       <c r="BS71">
-        <v>1.00234519207692</v>
+        <v>0.54739</v>
       </c>
       <c r="BT71">
-        <v>0.965753529529412</v>
+        <v>0.501494794520548</v>
       </c>
       <c r="BU71">
-        <v>0.8640946668</v>
+        <v>0.532622142857143</v>
       </c>
       <c r="BV71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX71">
         <v>4</v>
       </c>
       <c r="BY71">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BZ71">
         <v>9</v>
       </c>
       <c r="CA71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CB71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CC71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD71">
         <v>3</v>
@@ -18308,7 +18308,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18356,199 +18356,202 @@
       <c r="P72">
         <v>1</v>
       </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
       <c r="T72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U72">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="V72">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="W72">
+        <v>7</v>
+      </c>
+      <c r="X72">
+        <v>8</v>
+      </c>
+      <c r="Y72">
+        <v>6</v>
+      </c>
+      <c r="Z72">
+        <v>8</v>
+      </c>
+      <c r="AA72">
+        <v>12</v>
+      </c>
+      <c r="AB72">
+        <v>30</v>
+      </c>
+      <c r="AC72">
+        <v>19</v>
+      </c>
+      <c r="AD72">
+        <v>5</v>
+      </c>
+      <c r="AE72">
+        <v>62</v>
+      </c>
+      <c r="AF72">
+        <v>23</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>-0.0224598930481287</v>
+      </c>
+      <c r="AI72">
+        <v>0.09518716577540071</v>
+      </c>
+      <c r="AJ72">
+        <v>-0.904812834224599</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0.963636363636364</v>
+      </c>
+      <c r="AN72">
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="AO72">
+        <v>0.79712270022</v>
+      </c>
+      <c r="AP72">
+        <v>0.7799388633636361</v>
+      </c>
+      <c r="AQ72">
+        <v>0.778939091</v>
+      </c>
+      <c r="AR72">
+        <v>0.8112570587058821</v>
+      </c>
+      <c r="AS72">
+        <v>1.02155919998</v>
+      </c>
+      <c r="AT72">
+        <v>0.928667727181818</v>
+      </c>
+      <c r="AU72">
+        <v>0.811062999909091</v>
+      </c>
+      <c r="AV72">
+        <v>0.859622646764706</v>
+      </c>
+      <c r="AW72">
         <v>4</v>
       </c>
-      <c r="X72">
-        <v>13</v>
-      </c>
-      <c r="Y72">
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>6</v>
+      </c>
+      <c r="AZ72">
+        <v>8</v>
+      </c>
+      <c r="BA72">
+        <v>8</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>5</v>
+      </c>
+      <c r="BD72">
+        <v>6</v>
+      </c>
+      <c r="BE72">
         <v>7</v>
       </c>
-      <c r="Z72">
-        <v>15</v>
-      </c>
-      <c r="AA72">
-        <v>13</v>
-      </c>
-      <c r="AB72">
-        <v>27</v>
-      </c>
-      <c r="AC72">
-        <v>14</v>
-      </c>
-      <c r="AD72">
+      <c r="BF72">
+        <v>1</v>
+      </c>
+      <c r="BG72">
+        <v>0.013423831070889</v>
+      </c>
+      <c r="BH72">
+        <v>0.182654600301659</v>
+      </c>
+      <c r="BI72">
+        <v>-0.701960784313726</v>
+      </c>
+      <c r="BJ72">
+        <v>1</v>
+      </c>
+      <c r="BK72">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="BL72">
+        <v>0.901960784313726</v>
+      </c>
+      <c r="BM72">
+        <v>0.2</v>
+      </c>
+      <c r="BN72">
+        <v>0.909891226283019</v>
+      </c>
+      <c r="BO72">
+        <v>0.960323846307692</v>
+      </c>
+      <c r="BP72">
+        <v>0.9007646078431371</v>
+      </c>
+      <c r="BQ72">
+        <v>0.832147666933333</v>
+      </c>
+      <c r="BR72">
+        <v>0.954154622584906</v>
+      </c>
+      <c r="BS72">
+        <v>1.00234519207692</v>
+      </c>
+      <c r="BT72">
+        <v>0.965753529529412</v>
+      </c>
+      <c r="BU72">
+        <v>0.8640946668</v>
+      </c>
+      <c r="BV72">
         <v>3</v>
-      </c>
-      <c r="AE72">
-        <v>79</v>
-      </c>
-      <c r="AF72">
-        <v>36</v>
-      </c>
-      <c r="AG72">
-        <v>1</v>
-      </c>
-      <c r="AH72">
-        <v>1.32672983378629</v>
-      </c>
-      <c r="AI72">
-        <v>-0.033847089290638</v>
-      </c>
-      <c r="AJ72">
-        <v>0.00705645161290303</v>
-      </c>
-      <c r="AK72">
-        <v>0.920634920634921</v>
-      </c>
-      <c r="AL72">
-        <v>0.961538461538462</v>
-      </c>
-      <c r="AM72">
-        <v>0.274193548387097</v>
-      </c>
-      <c r="AN72">
-        <v>0.28125</v>
-      </c>
-      <c r="AO72">
-        <v>0.323047619047619</v>
-      </c>
-      <c r="AP72">
-        <v>0.288512307692308</v>
-      </c>
-      <c r="AQ72">
-        <v>0.28007685483871</v>
-      </c>
-      <c r="AR72">
-        <v>0.21174671875</v>
-      </c>
-      <c r="AS72">
-        <v>0.266112619047619</v>
-      </c>
-      <c r="AT72">
-        <v>0.259427884615385</v>
-      </c>
-      <c r="AU72">
-        <v>0.300300161290323</v>
-      </c>
-      <c r="AV72">
-        <v>0.3306715625</v>
-      </c>
-      <c r="AW72">
-        <v>3</v>
-      </c>
-      <c r="AX72">
-        <v>7</v>
-      </c>
-      <c r="AY72">
-        <v>8</v>
-      </c>
-      <c r="AZ72">
-        <v>3</v>
-      </c>
-      <c r="BA72">
-        <v>7</v>
-      </c>
-      <c r="BB72">
-        <v>2</v>
-      </c>
-      <c r="BC72">
-        <v>1</v>
-      </c>
-      <c r="BD72">
-        <v>1</v>
-      </c>
-      <c r="BE72">
-        <v>2</v>
-      </c>
-      <c r="BF72">
-        <v>1</v>
-      </c>
-      <c r="BG72">
-        <v>0.278270509977827</v>
-      </c>
-      <c r="BH72">
-        <v>0.217664449371765</v>
-      </c>
-      <c r="BI72">
-        <v>0.166666666666666</v>
-      </c>
-      <c r="BJ72">
-        <v>0.414634146341463</v>
-      </c>
-      <c r="BK72">
-        <v>0.363636363636364</v>
-      </c>
-      <c r="BL72">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="BM72">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="BN72">
-        <v>0.364313963414634</v>
-      </c>
-      <c r="BO72">
-        <v>0.292745606060606</v>
-      </c>
-      <c r="BP72">
-        <v>0.3107521875</v>
-      </c>
-      <c r="BQ72">
-        <v>0.319265833333333</v>
-      </c>
-      <c r="BR72">
-        <v>0.336078963414634</v>
-      </c>
-      <c r="BS72">
-        <v>0.252434545454545</v>
-      </c>
-      <c r="BT72">
-        <v>0.310725</v>
-      </c>
-      <c r="BU72">
-        <v>0.382834791666667</v>
-      </c>
-      <c r="BV72">
-        <v>7</v>
       </c>
       <c r="BW72">
         <v>3</v>
       </c>
       <c r="BX72">
+        <v>4</v>
+      </c>
+      <c r="BY72">
+        <v>9</v>
+      </c>
+      <c r="BZ72">
+        <v>9</v>
+      </c>
+      <c r="CA72">
+        <v>9</v>
+      </c>
+      <c r="CB72">
         <v>6</v>
       </c>
-      <c r="BY72">
-        <v>6</v>
-      </c>
-      <c r="BZ72">
-        <v>7</v>
-      </c>
-      <c r="CA72">
-        <v>2</v>
-      </c>
-      <c r="CB72">
-        <v>2</v>
-      </c>
       <c r="CC72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CD72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -18556,29 +18559,24 @@
         </is>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>HC</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Casino</t>
         </is>
       </c>
       <c r="K73">
@@ -18601,205 +18599,199 @@
       <c r="P73">
         <v>1</v>
       </c>
-      <c r="R73">
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>10</v>
+      </c>
+      <c r="V73">
+        <v>52</v>
+      </c>
+      <c r="W73">
         <v>4</v>
       </c>
-      <c r="S73">
+      <c r="X73">
         <v>13</v>
-      </c>
-      <c r="T73">
-        <v>21</v>
-      </c>
-      <c r="U73">
-        <v>23</v>
-      </c>
-      <c r="V73">
-        <v>50</v>
-      </c>
-      <c r="W73">
-        <v>8</v>
-      </c>
-      <c r="X73">
-        <v>12</v>
       </c>
       <c r="Y73">
         <v>7</v>
       </c>
       <c r="Z73">
+        <v>15</v>
+      </c>
+      <c r="AA73">
+        <v>13</v>
+      </c>
+      <c r="AB73">
+        <v>27</v>
+      </c>
+      <c r="AC73">
+        <v>14</v>
+      </c>
+      <c r="AD73">
+        <v>3</v>
+      </c>
+      <c r="AE73">
+        <v>79</v>
+      </c>
+      <c r="AF73">
+        <v>36</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>1.32672983378629</v>
+      </c>
+      <c r="AI73">
+        <v>-0.033847089290638</v>
+      </c>
+      <c r="AJ73">
+        <v>0.00705645161290303</v>
+      </c>
+      <c r="AK73">
+        <v>0.920634920634921</v>
+      </c>
+      <c r="AL73">
+        <v>0.961538461538462</v>
+      </c>
+      <c r="AM73">
+        <v>0.274193548387097</v>
+      </c>
+      <c r="AN73">
+        <v>0.28125</v>
+      </c>
+      <c r="AO73">
+        <v>0.323047619047619</v>
+      </c>
+      <c r="AP73">
+        <v>0.288512307692308</v>
+      </c>
+      <c r="AQ73">
+        <v>0.28007685483871</v>
+      </c>
+      <c r="AR73">
+        <v>0.21174671875</v>
+      </c>
+      <c r="AS73">
+        <v>0.266112619047619</v>
+      </c>
+      <c r="AT73">
+        <v>0.259427884615385</v>
+      </c>
+      <c r="AU73">
+        <v>0.300300161290323</v>
+      </c>
+      <c r="AV73">
+        <v>0.3306715625</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
         <v>8</v>
       </c>
-      <c r="AA73">
-        <v>15</v>
-      </c>
-      <c r="AB73">
-        <v>39</v>
-      </c>
-      <c r="AC73">
-        <v>22</v>
-      </c>
-      <c r="AD73">
-        <v>1</v>
-      </c>
-      <c r="AE73">
-        <v>71</v>
-      </c>
-      <c r="AF73">
-        <v>40</v>
-      </c>
-      <c r="AG73">
-        <v>1</v>
-      </c>
-      <c r="AH73">
-        <v>0.014436026936026</v>
-      </c>
-      <c r="AI73">
-        <v>0.0514730639730641</v>
-      </c>
-      <c r="AJ73">
-        <v>0.008417508417507991</v>
-      </c>
-      <c r="AK73">
-        <v>0.9875</v>
-      </c>
-      <c r="AL73">
-        <v>0.944444444444444</v>
-      </c>
-      <c r="AM73">
-        <v>0.954545454545455</v>
-      </c>
-      <c r="AN73">
-        <v>0.962962962962963</v>
-      </c>
-      <c r="AO73">
-        <v>0.2402256875</v>
-      </c>
-      <c r="AP73">
-        <v>0.236109722222222</v>
-      </c>
-      <c r="AQ73">
-        <v>0.183962272727273</v>
-      </c>
-      <c r="AR73">
-        <v>0.155968518518519</v>
-      </c>
-      <c r="AS73">
-        <v>0.6864475625000001</v>
-      </c>
-      <c r="AT73">
-        <v>0.714558888888889</v>
-      </c>
-      <c r="AU73">
-        <v>0.7031425</v>
-      </c>
-      <c r="AV73">
-        <v>0.641173888888889</v>
-      </c>
-      <c r="AW73">
-        <v>8</v>
-      </c>
-      <c r="AX73">
-        <v>9</v>
-      </c>
-      <c r="AY73">
+      <c r="AZ73">
+        <v>3</v>
+      </c>
+      <c r="BA73">
         <v>7</v>
       </c>
-      <c r="AZ73">
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>1</v>
+      </c>
+      <c r="BD73">
+        <v>1</v>
+      </c>
+      <c r="BE73">
+        <v>2</v>
+      </c>
+      <c r="BF73">
+        <v>1</v>
+      </c>
+      <c r="BG73">
+        <v>0.278270509977827</v>
+      </c>
+      <c r="BH73">
+        <v>0.217664449371765</v>
+      </c>
+      <c r="BI73">
+        <v>0.166666666666666</v>
+      </c>
+      <c r="BJ73">
+        <v>0.414634146341463</v>
+      </c>
+      <c r="BK73">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="BL73">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="BM73">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="BN73">
+        <v>0.364313963414634</v>
+      </c>
+      <c r="BO73">
+        <v>0.292745606060606</v>
+      </c>
+      <c r="BP73">
+        <v>0.3107521875</v>
+      </c>
+      <c r="BQ73">
+        <v>0.319265833333333</v>
+      </c>
+      <c r="BR73">
+        <v>0.336078963414634</v>
+      </c>
+      <c r="BS73">
+        <v>0.252434545454545</v>
+      </c>
+      <c r="BT73">
+        <v>0.310725</v>
+      </c>
+      <c r="BU73">
+        <v>0.382834791666667</v>
+      </c>
+      <c r="BV73">
+        <v>7</v>
+      </c>
+      <c r="BW73">
+        <v>3</v>
+      </c>
+      <c r="BX73">
         <v>6</v>
       </c>
-      <c r="BA73">
-        <v>8</v>
-      </c>
-      <c r="BB73">
-        <v>5</v>
-      </c>
-      <c r="BC73">
-        <v>3</v>
-      </c>
-      <c r="BD73">
-        <v>5</v>
-      </c>
-      <c r="BE73">
-        <v>8</v>
-      </c>
-      <c r="BF73">
-        <v>1</v>
-      </c>
-      <c r="BG73">
-        <v>-0.171561771561772</v>
-      </c>
-      <c r="BH73">
-        <v>0.00792540792540797</v>
-      </c>
-      <c r="BI73">
-        <v>-0.058741258741259</v>
-      </c>
-      <c r="BJ73">
-        <v>0.9</v>
-      </c>
-      <c r="BK73">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="BL73">
-        <v>0.981818181818182</v>
-      </c>
-      <c r="BM73">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="BN73">
-        <v>0.2823</v>
-      </c>
-      <c r="BO73">
-        <v>0.257541666666667</v>
-      </c>
-      <c r="BP73">
-        <v>0.217345454545455</v>
-      </c>
-      <c r="BQ73">
-        <v>0.213576923076923</v>
-      </c>
-      <c r="BR73">
-        <v>0.6196625</v>
-      </c>
-      <c r="BS73">
-        <v>0.559041666666667</v>
-      </c>
-      <c r="BT73">
-        <v>0.550345454545455</v>
-      </c>
-      <c r="BU73">
-        <v>0.590538461538462</v>
-      </c>
-      <c r="BV73">
+      <c r="BY73">
         <v>6</v>
-      </c>
-      <c r="BW73">
-        <v>7</v>
-      </c>
-      <c r="BX73">
-        <v>7</v>
-      </c>
-      <c r="BY73">
-        <v>8</v>
       </c>
       <c r="BZ73">
         <v>7</v>
       </c>
       <c r="CA73">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CB73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CC73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD73">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -18807,7 +18799,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -18819,11 +18811,8 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="G74">
-        <v>2</v>
+          <t>Employee</t>
+        </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -18833,11 +18822,6 @@
       <c r="I74" t="inlineStr">
         <is>
           <t>Casino</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>MoreThan1Month</t>
         </is>
       </c>
       <c r="K74">
@@ -18860,200 +18844,197 @@
       <c r="P74">
         <v>1</v>
       </c>
-      <c r="Q74">
-        <v>12</v>
-      </c>
       <c r="R74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S74">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="T74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U74">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V74">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X74">
         <v>12</v>
       </c>
       <c r="Y74">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z74">
         <v>8</v>
       </c>
       <c r="AA74">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB74">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AC74">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AD74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE74">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AF74">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG74">
         <v>1</v>
       </c>
       <c r="AH74">
-        <v>0.130512561250681</v>
+        <v>0.014436026936026</v>
       </c>
       <c r="AI74">
-        <v>-0.023333592595473</v>
+        <v>0.0514730639730641</v>
       </c>
       <c r="AJ74">
-        <v>-0.011705685618729</v>
+        <v>0.008417508417507991</v>
       </c>
       <c r="AK74">
-        <v>0.988372093023256</v>
+        <v>0.9875</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="AM74">
-        <v>0.934782608695652</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="AN74">
-        <v>0.923076923076923</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="AO74">
-        <v>0.245640348837209</v>
+        <v>0.2402256875</v>
       </c>
       <c r="AP74">
-        <v>0.22861875</v>
+        <v>0.236109722222222</v>
       </c>
       <c r="AQ74">
-        <v>0.230301086956522</v>
+        <v>0.183962272727273</v>
       </c>
       <c r="AR74">
-        <v>0.141319230769231</v>
+        <v>0.155968518518519</v>
       </c>
       <c r="AS74">
-        <v>0.6589920348837211</v>
+        <v>0.6864475625000001</v>
       </c>
       <c r="AT74">
-        <v>0.73041875</v>
+        <v>0.714558888888889</v>
       </c>
       <c r="AU74">
-        <v>0.484469130434783</v>
+        <v>0.7031425</v>
       </c>
       <c r="AV74">
-        <v>0.487576730769231</v>
+        <v>0.641173888888889</v>
       </c>
       <c r="AW74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY74">
         <v>7</v>
       </c>
       <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>8</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
         <v>3</v>
       </c>
-      <c r="BA74">
+      <c r="BD74">
         <v>5</v>
       </c>
-      <c r="BB74">
-        <v>6</v>
-      </c>
-      <c r="BC74">
-        <v>5</v>
-      </c>
-      <c r="BD74">
-        <v>6</v>
-      </c>
       <c r="BE74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF74">
         <v>1</v>
       </c>
       <c r="BG74">
-        <v>0.0594417227634871</v>
+        <v>-0.171561771561772</v>
       </c>
       <c r="BH74">
-        <v>0.00546870927023291</v>
+        <v>0.00792540792540797</v>
       </c>
       <c r="BI74">
-        <v>-0.08428093645485001</v>
+        <v>-0.058741258741259</v>
       </c>
       <c r="BJ74">
-        <v>0.986301369863014</v>
+        <v>0.9</v>
       </c>
       <c r="BK74">
-        <v>0.8965517241379311</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="BL74">
-        <v>0.953846153846154</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="BM74">
-        <v>0.869565217391304</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="BN74">
-        <v>0.35144</v>
+        <v>0.2823</v>
       </c>
       <c r="BO74">
-        <v>0.341215689655172</v>
+        <v>0.257541666666667</v>
       </c>
       <c r="BP74">
-        <v>0.304247</v>
+        <v>0.217345454545455</v>
       </c>
       <c r="BQ74">
-        <v>0.317827391304348</v>
+        <v>0.213576923076923</v>
       </c>
       <c r="BR74">
-        <v>0.704953150684931</v>
+        <v>0.6196625</v>
       </c>
       <c r="BS74">
-        <v>0.800635344827586</v>
+        <v>0.559041666666667</v>
       </c>
       <c r="BT74">
-        <v>0.553334</v>
+        <v>0.550345454545455</v>
       </c>
       <c r="BU74">
-        <v>0.549842391304348</v>
+        <v>0.590538461538462</v>
       </c>
       <c r="BV74">
         <v>6</v>
       </c>
       <c r="BW74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BX74">
         <v>7</v>
       </c>
       <c r="BY74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ74">
         <v>7</v>
       </c>
       <c r="CA74">
+        <v>7</v>
+      </c>
+      <c r="CB74">
         <v>6</v>
       </c>
-      <c r="CB74">
-        <v>5</v>
-      </c>
       <c r="CC74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD74">
         <v>5</v>
@@ -19061,7 +19042,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -19069,7 +19050,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -19077,242 +19058,253 @@
         </is>
       </c>
       <c r="E75">
+        <v>15</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>MoreThan1Month</t>
+        </is>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Earlier</t>
+        </is>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
         <v>12</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="G75">
-        <v>6</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Sport</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>ThisWeek</t>
-        </is>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
+      <c r="R75">
         <v>0</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
       <c r="S75">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="T75">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U75">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V75">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W75">
+        <v>11</v>
+      </c>
+      <c r="X75">
         <v>12</v>
-      </c>
-      <c r="X75">
-        <v>14</v>
       </c>
       <c r="Y75">
         <v>11</v>
       </c>
       <c r="Z75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA75">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB75">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AC75">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE75">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AF75">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AG75">
         <v>1</v>
       </c>
       <c r="AH75">
-        <v>-0.0103174603174601</v>
+        <v>0.130512561250681</v>
       </c>
       <c r="AI75">
-        <v>0.156349206349206</v>
+        <v>-0.023333592595473</v>
       </c>
       <c r="AJ75">
-        <v>0.088888888888889</v>
+        <v>-0.011705685618729</v>
       </c>
       <c r="AK75">
-        <v>0.984126984126984</v>
+        <v>0.988372093023256</v>
       </c>
       <c r="AL75">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="AM75">
-        <v>0.911111111111111</v>
+        <v>0.934782608695652</v>
       </c>
       <c r="AN75">
-        <v>1</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="AO75">
-        <v>1.17249587301587</v>
+        <v>0.245640348837209</v>
       </c>
       <c r="AP75">
-        <v>1.39298083333333</v>
+        <v>0.22861875</v>
       </c>
       <c r="AQ75">
-        <v>1.17485411111111</v>
+        <v>0.230301086956522</v>
       </c>
       <c r="AR75">
-        <v>1.31869416666667</v>
+        <v>0.141319230769231</v>
       </c>
       <c r="AS75">
-        <v>0.441581349206349</v>
+        <v>0.6589920348837211</v>
       </c>
       <c r="AT75">
-        <v>0.4958375</v>
+        <v>0.73041875</v>
       </c>
       <c r="AU75">
-        <v>0.464321666666667</v>
+        <v>0.484469130434783</v>
       </c>
       <c r="AV75">
-        <v>0.535286</v>
+        <v>0.487576730769231</v>
       </c>
       <c r="AW75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX75">
         <v>6</v>
       </c>
       <c r="AY75">
+        <v>7</v>
+      </c>
+      <c r="AZ75">
+        <v>3</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
         <v>6</v>
       </c>
-      <c r="AZ75">
-        <v>4</v>
-      </c>
-      <c r="BA75">
-        <v>4</v>
-      </c>
-      <c r="BB75">
+      <c r="BC75">
         <v>5</v>
       </c>
-      <c r="BC75">
-        <v>4</v>
-      </c>
       <c r="BD75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BE75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG75">
-        <v>0</v>
+        <v>0.0594417227634871</v>
       </c>
       <c r="BH75">
-        <v>0</v>
+        <v>0.00546870927023291</v>
       </c>
       <c r="BI75">
-        <v>0</v>
+        <v>-0.08428093645485001</v>
       </c>
       <c r="BJ75">
-        <v>1</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="BK75">
-        <v>1</v>
+        <v>0.8965517241379311</v>
       </c>
       <c r="BL75">
-        <v>1</v>
+        <v>0.953846153846154</v>
       </c>
       <c r="BM75">
-        <v>1</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="BN75">
-        <v>1.45749161538462</v>
+        <v>0.35144</v>
       </c>
       <c r="BO75">
-        <v>1.6476265</v>
+        <v>0.341215689655172</v>
       </c>
       <c r="BP75">
-        <v>1.2980885</v>
+        <v>0.304247</v>
       </c>
       <c r="BQ75">
-        <v>1.557659375</v>
+        <v>0.317827391304348</v>
       </c>
       <c r="BR75">
-        <v>0.611871153846154</v>
+        <v>0.704953150684931</v>
       </c>
       <c r="BS75">
-        <v>0.59999</v>
+        <v>0.800635344827586</v>
       </c>
       <c r="BT75">
-        <v>0.44003675</v>
+        <v>0.553334</v>
       </c>
       <c r="BU75">
-        <v>0.64751</v>
+        <v>0.549842391304348</v>
       </c>
       <c r="BV75">
         <v>6</v>
       </c>
       <c r="BW75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX75">
         <v>7</v>
       </c>
       <c r="BY75">
+        <v>7</v>
+      </c>
+      <c r="BZ75">
+        <v>7</v>
+      </c>
+      <c r="CA75">
+        <v>6</v>
+      </c>
+      <c r="CB75">
         <v>5</v>
       </c>
-      <c r="BZ75">
-        <v>4</v>
-      </c>
-      <c r="CA75">
-        <v>4</v>
-      </c>
-      <c r="CB75">
-        <v>2</v>
-      </c>
       <c r="CC75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CD75">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -19320,7 +19312,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -19328,213 +19320,213 @@
         </is>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Independent</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ThisWeek</t>
+        </is>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Casino</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
       <c r="O76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76">
         <v>1</v>
       </c>
-      <c r="R76">
-        <v>5</v>
+      <c r="S76">
+        <v>7</v>
       </c>
       <c r="T76">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="U76">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V76">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W76">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X76">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y76">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Z76">
+        <v>11</v>
+      </c>
+      <c r="AA76">
+        <v>8</v>
+      </c>
+      <c r="AB76">
+        <v>27</v>
+      </c>
+      <c r="AC76">
+        <v>31</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>54</v>
+      </c>
+      <c r="AF76">
+        <v>47</v>
+      </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
+      <c r="AH76">
+        <v>-0.0103174603174601</v>
+      </c>
+      <c r="AI76">
+        <v>0.156349206349206</v>
+      </c>
+      <c r="AJ76">
+        <v>0.088888888888889</v>
+      </c>
+      <c r="AK76">
+        <v>0.984126984126984</v>
+      </c>
+      <c r="AL76">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="AM76">
+        <v>0.911111111111111</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1.17249587301587</v>
+      </c>
+      <c r="AP76">
+        <v>1.39298083333333</v>
+      </c>
+      <c r="AQ76">
+        <v>1.17485411111111</v>
+      </c>
+      <c r="AR76">
+        <v>1.31869416666667</v>
+      </c>
+      <c r="AS76">
+        <v>0.441581349206349</v>
+      </c>
+      <c r="AT76">
+        <v>0.4958375</v>
+      </c>
+      <c r="AU76">
+        <v>0.464321666666667</v>
+      </c>
+      <c r="AV76">
+        <v>0.535286</v>
+      </c>
+      <c r="AW76">
         <v>6</v>
       </c>
-      <c r="AA76">
-        <v>15</v>
-      </c>
-      <c r="AB76">
-        <v>48</v>
-      </c>
-      <c r="AC76">
-        <v>14</v>
-      </c>
-      <c r="AD76">
-        <v>1</v>
-      </c>
-      <c r="AE76">
-        <v>97</v>
-      </c>
-      <c r="AF76">
-        <v>28</v>
-      </c>
-      <c r="AG76">
-        <v>1</v>
-      </c>
-      <c r="AH76">
-        <v>-0.047085804712923</v>
-      </c>
-      <c r="AI76">
-        <v>-0.114618272245391</v>
-      </c>
-      <c r="AJ76">
-        <v>-0.023112480739599</v>
-      </c>
-      <c r="AK76">
-        <v>0.851351351351351</v>
-      </c>
-      <c r="AL76">
-        <v>0.942857142857143</v>
-      </c>
-      <c r="AM76">
-        <v>0.932203389830508</v>
-      </c>
-      <c r="AN76">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="AO76">
-        <v>0.282108108108108</v>
-      </c>
-      <c r="AP76">
-        <v>0.2136</v>
-      </c>
-      <c r="AQ76">
-        <v>0.239389830508475</v>
-      </c>
-      <c r="AR76">
-        <v>0.223818181818182</v>
-      </c>
-      <c r="AS76">
-        <v>0.355378378378378</v>
-      </c>
-      <c r="AT76">
-        <v>0.317828571428571</v>
-      </c>
-      <c r="AU76">
-        <v>0.279491525423729</v>
-      </c>
-      <c r="AV76">
-        <v>0.325681818181818</v>
-      </c>
-      <c r="AW76">
-        <v>4</v>
-      </c>
       <c r="AX76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY76">
         <v>6</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG76">
-        <v>-0.127237064213862</v>
+        <v>0</v>
       </c>
       <c r="BH76">
-        <v>0.179673504891828</v>
+        <v>0</v>
       </c>
       <c r="BI76">
-        <v>0.0939265536723161</v>
+        <v>0</v>
       </c>
       <c r="BJ76">
-        <v>0.890625</v>
+        <v>1</v>
       </c>
       <c r="BK76">
-        <v>0.804878048780488</v>
+        <v>1</v>
       </c>
       <c r="BL76">
-        <v>0.864406779661017</v>
+        <v>1</v>
       </c>
       <c r="BM76">
-        <v>0.958333333333333</v>
+        <v>1</v>
       </c>
       <c r="BN76">
-        <v>0.29671875</v>
+        <v>1.45749161538462</v>
       </c>
       <c r="BO76">
-        <v>0.326463414634146</v>
+        <v>1.6476265</v>
       </c>
       <c r="BP76">
-        <v>0.240491525423729</v>
+        <v>1.2980885</v>
       </c>
       <c r="BQ76">
-        <v>0.179916666666667</v>
+        <v>1.557659375</v>
       </c>
       <c r="BR76">
-        <v>0.300375</v>
+        <v>0.611871153846154</v>
       </c>
       <c r="BS76">
-        <v>0.387487804878049</v>
+        <v>0.59999</v>
       </c>
       <c r="BT76">
-        <v>0.315135593220339</v>
+        <v>0.44003675</v>
       </c>
       <c r="BU76">
-        <v>0.260958333333333</v>
+        <v>0.64751</v>
       </c>
       <c r="BV76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BW76">
         <v>6</v>
@@ -19543,27 +19535,27 @@
         <v>7</v>
       </c>
       <c r="BY76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BZ76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CA76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CB76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD76">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -19571,36 +19563,44 @@
         </is>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
+          <t>Independent</t>
+        </is>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>HC</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Earlier</t>
-        </is>
-      </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -19611,199 +19611,202 @@
       <c r="P77">
         <v>1</v>
       </c>
+      <c r="R77">
+        <v>5</v>
+      </c>
       <c r="T77">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U77">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V77">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y77">
+        <v>5</v>
+      </c>
+      <c r="Z77">
+        <v>6</v>
+      </c>
+      <c r="AA77">
+        <v>15</v>
+      </c>
+      <c r="AB77">
+        <v>48</v>
+      </c>
+      <c r="AC77">
+        <v>14</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>97</v>
+      </c>
+      <c r="AF77">
+        <v>28</v>
+      </c>
+      <c r="AG77">
+        <v>1</v>
+      </c>
+      <c r="AH77">
+        <v>-0.047085804712923</v>
+      </c>
+      <c r="AI77">
+        <v>-0.114618272245391</v>
+      </c>
+      <c r="AJ77">
+        <v>-0.023112480739599</v>
+      </c>
+      <c r="AK77">
+        <v>0.851351351351351</v>
+      </c>
+      <c r="AL77">
+        <v>0.942857142857143</v>
+      </c>
+      <c r="AM77">
+        <v>0.932203389830508</v>
+      </c>
+      <c r="AN77">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="AO77">
+        <v>0.282108108108108</v>
+      </c>
+      <c r="AP77">
+        <v>0.2136</v>
+      </c>
+      <c r="AQ77">
+        <v>0.239389830508475</v>
+      </c>
+      <c r="AR77">
+        <v>0.223818181818182</v>
+      </c>
+      <c r="AS77">
+        <v>0.355378378378378</v>
+      </c>
+      <c r="AT77">
+        <v>0.317828571428571</v>
+      </c>
+      <c r="AU77">
+        <v>0.279491525423729</v>
+      </c>
+      <c r="AV77">
+        <v>0.325681818181818</v>
+      </c>
+      <c r="AW77">
         <v>4</v>
       </c>
-      <c r="Z77">
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>6</v>
+      </c>
+      <c r="AZ77">
         <v>8</v>
       </c>
-      <c r="AA77">
+      <c r="BA77">
+        <v>9</v>
+      </c>
+      <c r="BB77">
+        <v>7</v>
+      </c>
+      <c r="BC77">
+        <v>1</v>
+      </c>
+      <c r="BD77">
+        <v>1</v>
+      </c>
+      <c r="BE77">
+        <v>1</v>
+      </c>
+      <c r="BF77">
+        <v>1</v>
+      </c>
+      <c r="BG77">
+        <v>-0.127237064213862</v>
+      </c>
+      <c r="BH77">
+        <v>0.179673504891828</v>
+      </c>
+      <c r="BI77">
+        <v>0.0939265536723161</v>
+      </c>
+      <c r="BJ77">
+        <v>0.890625</v>
+      </c>
+      <c r="BK77">
+        <v>0.804878048780488</v>
+      </c>
+      <c r="BL77">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="BM77">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="BN77">
+        <v>0.29671875</v>
+      </c>
+      <c r="BO77">
+        <v>0.326463414634146</v>
+      </c>
+      <c r="BP77">
+        <v>0.240491525423729</v>
+      </c>
+      <c r="BQ77">
+        <v>0.179916666666667</v>
+      </c>
+      <c r="BR77">
+        <v>0.300375</v>
+      </c>
+      <c r="BS77">
+        <v>0.387487804878049</v>
+      </c>
+      <c r="BT77">
+        <v>0.315135593220339</v>
+      </c>
+      <c r="BU77">
+        <v>0.260958333333333</v>
+      </c>
+      <c r="BV77">
+        <v>8</v>
+      </c>
+      <c r="BW77">
         <v>6</v>
       </c>
-      <c r="AB77">
-        <v>38</v>
-      </c>
-      <c r="AC77">
-        <v>26</v>
-      </c>
-      <c r="AD77">
-        <v>10</v>
-      </c>
-      <c r="AE77">
-        <v>53</v>
-      </c>
-      <c r="AF77">
-        <v>39</v>
-      </c>
-      <c r="AG77">
-        <v>1</v>
-      </c>
-      <c r="AH77">
-        <v>0.269465517397649</v>
-      </c>
-      <c r="AI77">
-        <v>-0.011470937451849</v>
-      </c>
-      <c r="AJ77">
-        <v>-0.039613526570048</v>
-      </c>
-      <c r="AK77">
-        <v>0.951219512195122</v>
-      </c>
-      <c r="AL77">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="AM77">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="AN77">
-        <v>0.782608695652174</v>
-      </c>
-      <c r="AO77">
-        <v>0.290498475609756</v>
-      </c>
-      <c r="AP77">
-        <v>0.312494102564103</v>
-      </c>
-      <c r="AQ77">
-        <v>0.289232888888889</v>
-      </c>
-      <c r="AR77">
-        <v>0.292341086956522</v>
-      </c>
-      <c r="AS77">
-        <v>0.4580025</v>
-      </c>
-      <c r="AT77">
-        <v>0.484629871794872</v>
-      </c>
-      <c r="AU77">
-        <v>0.476598111111111</v>
-      </c>
-      <c r="AV77">
-        <v>0.480856739130435</v>
-      </c>
-      <c r="AW77">
-        <v>1</v>
-      </c>
-      <c r="AX77">
-        <v>2</v>
-      </c>
-      <c r="AY77">
-        <v>1</v>
-      </c>
-      <c r="AZ77">
-        <v>9</v>
-      </c>
-      <c r="BA77">
-        <v>9</v>
-      </c>
-      <c r="BB77">
-        <v>9</v>
-      </c>
-      <c r="BC77">
-        <v>3</v>
-      </c>
-      <c r="BD77">
-        <v>3</v>
-      </c>
-      <c r="BE77">
-        <v>2</v>
-      </c>
-      <c r="BF77">
-        <v>1</v>
-      </c>
-      <c r="BG77">
-        <v>0.124385568664745</v>
-      </c>
-      <c r="BH77">
-        <v>0.0349445748759249</v>
-      </c>
-      <c r="BI77">
-        <v>0.0150197628458499</v>
-      </c>
-      <c r="BJ77">
-        <v>0.9342105263157891</v>
-      </c>
-      <c r="BK77">
-        <v>0.914285714285714</v>
-      </c>
-      <c r="BL77">
-        <v>0.8545454545454541</v>
-      </c>
-      <c r="BM77">
-        <v>0.869565217391304</v>
-      </c>
-      <c r="BN77">
-        <v>0.322437565789474</v>
-      </c>
-      <c r="BO77">
-        <v>0.369922285714286</v>
-      </c>
-      <c r="BP77">
-        <v>0.333615454545455</v>
-      </c>
-      <c r="BQ77">
-        <v>0.348412391304348</v>
-      </c>
-      <c r="BR77">
-        <v>0.560844078947368</v>
-      </c>
-      <c r="BS77">
-        <v>0.573700857142857</v>
-      </c>
-      <c r="BT77">
-        <v>0.567109363636364</v>
-      </c>
-      <c r="BU77">
-        <v>0.653002391304348</v>
-      </c>
-      <c r="BV77">
-        <v>2</v>
-      </c>
-      <c r="BW77">
-        <v>2</v>
-      </c>
       <c r="BX77">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BY77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC77">
         <v>1</v>
       </c>
       <c r="CD77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -19811,37 +19814,24 @@
         </is>
       </c>
       <c r="C78">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Independent</t>
-        </is>
-      </c>
-      <c r="G78">
-        <v>5</v>
+          <t>Student</t>
+        </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Casino</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Today</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="K78">
@@ -19853,7 +19843,7 @@
         </is>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -19864,205 +19854,199 @@
       <c r="P78">
         <v>1</v>
       </c>
-      <c r="R78">
-        <v>4</v>
-      </c>
-      <c r="S78">
-        <v>7</v>
-      </c>
       <c r="T78">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="U78">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="V78">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W78">
         <v>10</v>
       </c>
       <c r="X78">
+        <v>10</v>
+      </c>
+      <c r="Y78">
+        <v>4</v>
+      </c>
+      <c r="Z78">
         <v>8</v>
       </c>
-      <c r="Y78">
-        <v>5</v>
-      </c>
-      <c r="Z78">
-        <v>4</v>
-      </c>
       <c r="AA78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB78">
         <v>38</v>
       </c>
       <c r="AC78">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD78">
+        <v>10</v>
+      </c>
+      <c r="AE78">
+        <v>53</v>
+      </c>
+      <c r="AF78">
+        <v>39</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>0.269465517397649</v>
+      </c>
+      <c r="AI78">
+        <v>-0.011470937451849</v>
+      </c>
+      <c r="AJ78">
+        <v>-0.039613526570048</v>
+      </c>
+      <c r="AK78">
+        <v>0.951219512195122</v>
+      </c>
+      <c r="AL78">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="AM78">
+        <v>0.822222222222222</v>
+      </c>
+      <c r="AN78">
+        <v>0.782608695652174</v>
+      </c>
+      <c r="AO78">
+        <v>0.290498475609756</v>
+      </c>
+      <c r="AP78">
+        <v>0.312494102564103</v>
+      </c>
+      <c r="AQ78">
+        <v>0.289232888888889</v>
+      </c>
+      <c r="AR78">
+        <v>0.292341086956522</v>
+      </c>
+      <c r="AS78">
+        <v>0.4580025</v>
+      </c>
+      <c r="AT78">
+        <v>0.484629871794872</v>
+      </c>
+      <c r="AU78">
+        <v>0.476598111111111</v>
+      </c>
+      <c r="AV78">
+        <v>0.480856739130435</v>
+      </c>
+      <c r="AW78">
+        <v>1</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>1</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>9</v>
+      </c>
+      <c r="BB78">
+        <v>9</v>
+      </c>
+      <c r="BC78">
         <v>3</v>
       </c>
-      <c r="AE78">
-        <v>71</v>
-      </c>
-      <c r="AF78">
-        <v>42</v>
-      </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-      <c r="AI78">
-        <v>0</v>
-      </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
-      <c r="AK78">
-        <v>1</v>
-      </c>
-      <c r="AL78">
-        <v>1</v>
-      </c>
-      <c r="AM78">
-        <v>1</v>
-      </c>
-      <c r="AN78">
-        <v>1</v>
-      </c>
-      <c r="AO78">
-        <v>0.455254285714286</v>
-      </c>
-      <c r="AP78">
-        <v>0.5323375</v>
-      </c>
-      <c r="AQ78">
-        <v>0.394533333333333</v>
-      </c>
-      <c r="AR78">
-        <v>0.364508333333333</v>
-      </c>
-      <c r="AS78">
-        <v>1.17066</v>
-      </c>
-      <c r="AT78">
-        <v>1.0999</v>
-      </c>
-      <c r="AU78">
-        <v>0.989764583333333</v>
-      </c>
-      <c r="AV78">
-        <v>0.982183333333333</v>
-      </c>
-      <c r="AW78">
-        <v>9</v>
-      </c>
-      <c r="AX78">
-        <v>1</v>
-      </c>
-      <c r="AY78">
-        <v>5</v>
-      </c>
-      <c r="AZ78">
-        <v>5</v>
-      </c>
-      <c r="BA78">
-        <v>5</v>
-      </c>
-      <c r="BB78">
-        <v>1</v>
-      </c>
-      <c r="BC78">
-        <v>1</v>
-      </c>
       <c r="BD78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG78">
-        <v>0</v>
+        <v>0.124385568664745</v>
       </c>
       <c r="BH78">
-        <v>0</v>
+        <v>0.0349445748759249</v>
       </c>
       <c r="BI78">
-        <v>0</v>
+        <v>0.0150197628458499</v>
       </c>
       <c r="BJ78">
-        <v>1</v>
+        <v>0.9342105263157891</v>
       </c>
       <c r="BK78">
-        <v>1</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="BL78">
-        <v>1</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="BM78">
-        <v>1</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="BN78">
-        <v>0.453490740740741</v>
+        <v>0.322437565789474</v>
       </c>
       <c r="BO78">
-        <v>0.434986206896552</v>
+        <v>0.369922285714286</v>
       </c>
       <c r="BP78">
-        <v>0.393106896551724</v>
+        <v>0.333615454545455</v>
       </c>
       <c r="BQ78">
-        <v>0.385625</v>
+        <v>0.348412391304348</v>
       </c>
       <c r="BR78">
-        <v>1.05425925925926</v>
+        <v>0.560844078947368</v>
       </c>
       <c r="BS78">
-        <v>1.04811034482759</v>
+        <v>0.573700857142857</v>
       </c>
       <c r="BT78">
-        <v>1.06290172413793</v>
+        <v>0.567109363636364</v>
       </c>
       <c r="BU78">
-        <v>0.837608333333333</v>
+        <v>0.653002391304348</v>
       </c>
       <c r="BV78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BW78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BX78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BY78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BZ78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA78">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CB78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC78">
         <v>1</v>
       </c>
       <c r="CD78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -20070,7 +20054,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -20082,11 +20066,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -20095,7 +20079,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Loterie</t>
+          <t>Casino</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -20108,220 +20092,220 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Earlier</t>
         </is>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>4</v>
+      </c>
+      <c r="S79">
+        <v>7</v>
+      </c>
+      <c r="T79">
+        <v>7</v>
+      </c>
+      <c r="U79">
+        <v>31</v>
+      </c>
+      <c r="V79">
+        <v>34</v>
+      </c>
+      <c r="W79">
+        <v>10</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>5</v>
+      </c>
+      <c r="Z79">
+        <v>4</v>
+      </c>
+      <c r="AA79">
+        <v>7</v>
+      </c>
+      <c r="AB79">
+        <v>38</v>
+      </c>
+      <c r="AC79">
+        <v>24</v>
+      </c>
+      <c r="AD79">
+        <v>3</v>
+      </c>
+      <c r="AE79">
+        <v>71</v>
+      </c>
+      <c r="AF79">
+        <v>42</v>
+      </c>
+      <c r="AG79">
         <v>0</v>
       </c>
-      <c r="O79">
+      <c r="AH79">
         <v>0</v>
       </c>
-      <c r="P79">
+      <c r="AI79">
         <v>0</v>
       </c>
-      <c r="R79">
-        <v>1</v>
-      </c>
-      <c r="S79">
-        <v>9</v>
-      </c>
-      <c r="T79">
-        <v>22</v>
-      </c>
-      <c r="U79">
-        <v>38</v>
-      </c>
-      <c r="V79">
-        <v>52</v>
-      </c>
-      <c r="W79">
-        <v>12</v>
-      </c>
-      <c r="X79">
-        <v>12</v>
-      </c>
-      <c r="Y79">
-        <v>10</v>
-      </c>
-      <c r="Z79">
-        <v>7</v>
-      </c>
-      <c r="AA79">
-        <v>11</v>
-      </c>
-      <c r="AB79">
-        <v>29</v>
-      </c>
-      <c r="AC79">
-        <v>23</v>
-      </c>
-      <c r="AD79">
-        <v>17</v>
-      </c>
-      <c r="AE79">
-        <v>65</v>
-      </c>
-      <c r="AF79">
-        <v>46</v>
-      </c>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AH79">
-        <v>1.24234773187621</v>
-      </c>
-      <c r="AI79">
-        <v>-0.14895661594988</v>
-      </c>
       <c r="AJ79">
-        <v>-0.118187385180649</v>
+        <v>0</v>
       </c>
       <c r="AK79">
-        <v>0.969230769230769</v>
+        <v>1</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
-        <v>0.422535211267606</v>
+        <v>1</v>
       </c>
       <c r="AN79">
-        <v>0.304347826086957</v>
+        <v>1</v>
       </c>
       <c r="AO79">
-        <v>0.561526384615385</v>
+        <v>0.455254285714286</v>
       </c>
       <c r="AP79">
-        <v>0.561868064516129</v>
+        <v>0.5323375</v>
       </c>
       <c r="AQ79">
-        <v>0.455553943661972</v>
+        <v>0.394533333333333</v>
       </c>
       <c r="AR79">
-        <v>0.510551739130435</v>
+        <v>0.364508333333333</v>
       </c>
       <c r="AS79">
-        <v>0.381296923076923</v>
+        <v>1.17066</v>
       </c>
       <c r="AT79">
-        <v>0.428178548387097</v>
+        <v>1.0999</v>
       </c>
       <c r="AU79">
-        <v>0.431524084507042</v>
+        <v>0.989764583333333</v>
       </c>
       <c r="AV79">
-        <v>0.381271956521739</v>
+        <v>0.982183333333333</v>
       </c>
       <c r="AW79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX79">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AY79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BE79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BF79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG79">
-        <v>0.323889650018683</v>
+        <v>0</v>
       </c>
       <c r="BH79">
-        <v>0.086746792875825</v>
+        <v>0</v>
       </c>
       <c r="BI79">
-        <v>0.0761290322580651</v>
+        <v>0</v>
       </c>
       <c r="BJ79">
-        <v>0.689189189189189</v>
+        <v>1</v>
       </c>
       <c r="BK79">
-        <v>0.6785714285714291</v>
+        <v>1</v>
       </c>
       <c r="BL79">
-        <v>0.483870967741935</v>
+        <v>1</v>
       </c>
       <c r="BM79">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="BN79">
-        <v>0.251154662162162</v>
+        <v>0.453490740740741</v>
       </c>
       <c r="BO79">
-        <v>0.175608214285714</v>
+        <v>0.434986206896552</v>
       </c>
       <c r="BP79">
-        <v>0.123351290322581</v>
+        <v>0.393106896551724</v>
       </c>
       <c r="BQ79">
-        <v>0.2237064</v>
+        <v>0.385625</v>
       </c>
       <c r="BR79">
-        <v>0.178482297297297</v>
+        <v>1.05425925925926</v>
       </c>
       <c r="BS79">
-        <v>0.14271125</v>
+        <v>1.04811034482759</v>
       </c>
       <c r="BT79">
-        <v>0.160048225806452</v>
+        <v>1.06290172413793</v>
       </c>
       <c r="BU79">
-        <v>0.1621844</v>
+        <v>0.837608333333333</v>
       </c>
       <c r="BV79">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BW79">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BX79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BY79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BZ79">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="CA79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CC79">
         <v>1</v>
       </c>
       <c r="CD79">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -20329,7 +20313,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -20341,244 +20325,246 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Independent</t>
+          <t>Employee</t>
         </is>
       </c>
       <c r="G80">
+        <v>12</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Loterie</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Today</t>
+        </is>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>22</v>
+      </c>
+      <c r="U80">
+        <v>38</v>
+      </c>
+      <c r="V80">
+        <v>52</v>
+      </c>
+      <c r="W80">
+        <v>12</v>
+      </c>
+      <c r="X80">
+        <v>12</v>
+      </c>
+      <c r="Y80">
+        <v>10</v>
+      </c>
+      <c r="Z80">
+        <v>7</v>
+      </c>
+      <c r="AA80">
+        <v>11</v>
+      </c>
+      <c r="AB80">
+        <v>29</v>
+      </c>
+      <c r="AC80">
+        <v>23</v>
+      </c>
+      <c r="AD80">
+        <v>17</v>
+      </c>
+      <c r="AE80">
+        <v>65</v>
+      </c>
+      <c r="AF80">
+        <v>46</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>1.24234773187621</v>
+      </c>
+      <c r="AI80">
+        <v>-0.14895661594988</v>
+      </c>
+      <c r="AJ80">
+        <v>-0.118187385180649</v>
+      </c>
+      <c r="AK80">
+        <v>0.969230769230769</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
+        <v>0.422535211267606</v>
+      </c>
+      <c r="AN80">
+        <v>0.304347826086957</v>
+      </c>
+      <c r="AO80">
+        <v>0.561526384615385</v>
+      </c>
+      <c r="AP80">
+        <v>0.561868064516129</v>
+      </c>
+      <c r="AQ80">
+        <v>0.455553943661972</v>
+      </c>
+      <c r="AR80">
+        <v>0.510551739130435</v>
+      </c>
+      <c r="AS80">
+        <v>0.381296923076923</v>
+      </c>
+      <c r="AT80">
+        <v>0.428178548387097</v>
+      </c>
+      <c r="AU80">
+        <v>0.431524084507042</v>
+      </c>
+      <c r="AV80">
+        <v>0.381271956521739</v>
+      </c>
+      <c r="AW80">
+        <v>7</v>
+      </c>
+      <c r="AX80">
+        <v>9</v>
+      </c>
+      <c r="AY80">
+        <v>6</v>
+      </c>
+      <c r="AZ80">
+        <v>3</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>5</v>
+      </c>
+      <c r="BD80">
+        <v>5</v>
+      </c>
+      <c r="BE80">
+        <v>4</v>
+      </c>
+      <c r="BF80">
+        <v>1</v>
+      </c>
+      <c r="BG80">
+        <v>0.323889650018683</v>
+      </c>
+      <c r="BH80">
+        <v>0.086746792875825</v>
+      </c>
+      <c r="BI80">
+        <v>0.0761290322580651</v>
+      </c>
+      <c r="BJ80">
+        <v>0.689189189189189</v>
+      </c>
+      <c r="BK80">
+        <v>0.6785714285714291</v>
+      </c>
+      <c r="BL80">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="BM80">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BN80">
+        <v>0.251154662162162</v>
+      </c>
+      <c r="BO80">
+        <v>0.175608214285714</v>
+      </c>
+      <c r="BP80">
+        <v>0.123351290322581</v>
+      </c>
+      <c r="BQ80">
+        <v>0.2237064</v>
+      </c>
+      <c r="BR80">
+        <v>0.178482297297297</v>
+      </c>
+      <c r="BS80">
+        <v>0.14271125</v>
+      </c>
+      <c r="BT80">
+        <v>0.160048225806452</v>
+      </c>
+      <c r="BU80">
+        <v>0.1621844</v>
+      </c>
+      <c r="BV80">
+        <v>1</v>
+      </c>
+      <c r="BW80">
+        <v>1</v>
+      </c>
+      <c r="BX80">
+        <v>5</v>
+      </c>
+      <c r="BY80">
+        <v>5</v>
+      </c>
+      <c r="BZ80">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Casino</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>ThisWeek</t>
-        </is>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>19</v>
-      </c>
-      <c r="R80">
-        <v>3</v>
-      </c>
-      <c r="S80">
-        <v>15</v>
-      </c>
-      <c r="T80">
-        <v>8</v>
-      </c>
-      <c r="U80">
-        <v>21</v>
-      </c>
-      <c r="V80">
-        <v>49</v>
-      </c>
-      <c r="W80">
-        <v>11</v>
-      </c>
-      <c r="X80">
-        <v>9</v>
-      </c>
-      <c r="Y80">
+      <c r="CA80">
+        <v>4</v>
+      </c>
+      <c r="CB80">
         <v>5</v>
       </c>
-      <c r="Z80">
-        <v>10</v>
-      </c>
-      <c r="AA80">
-        <v>14</v>
-      </c>
-      <c r="AB80">
-        <v>45</v>
-      </c>
-      <c r="AC80">
-        <v>15</v>
-      </c>
-      <c r="AD80">
-        <v>4</v>
-      </c>
-      <c r="AE80">
-        <v>75</v>
-      </c>
-      <c r="AF80">
-        <v>36</v>
-      </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
-      <c r="AI80">
-        <v>0</v>
-      </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
-      <c r="AK80">
-        <v>1</v>
-      </c>
-      <c r="AL80">
-        <v>1</v>
-      </c>
-      <c r="AM80">
-        <v>1</v>
-      </c>
-      <c r="AN80">
-        <v>1</v>
-      </c>
-      <c r="AO80">
-        <v>0.288603736263736</v>
-      </c>
-      <c r="AP80">
-        <v>0.263115555555556</v>
-      </c>
-      <c r="AQ80">
-        <v>0.272770222222222</v>
-      </c>
-      <c r="AR80">
-        <v>0.267851805555556</v>
-      </c>
-      <c r="AS80">
-        <v>0.475722142857143</v>
-      </c>
-      <c r="AT80">
-        <v>0.496810833333333</v>
-      </c>
-      <c r="AU80">
-        <v>0.491667222222222</v>
-      </c>
-      <c r="AV80">
-        <v>0.47796625</v>
-      </c>
-      <c r="AW80">
-        <v>5</v>
-      </c>
-      <c r="AX80">
+      <c r="CC80">
+        <v>1</v>
+      </c>
+      <c r="CD80">
         <v>6</v>
-      </c>
-      <c r="AY80">
-        <v>5</v>
-      </c>
-      <c r="AZ80">
-        <v>9</v>
-      </c>
-      <c r="BA80">
-        <v>9</v>
-      </c>
-      <c r="BB80">
-        <v>9</v>
-      </c>
-      <c r="BC80">
-        <v>3</v>
-      </c>
-      <c r="BD80">
-        <v>4</v>
-      </c>
-      <c r="BE80">
-        <v>5</v>
-      </c>
-      <c r="BF80">
-        <v>0</v>
-      </c>
-      <c r="BG80">
-        <v>0.0702434380524959</v>
-      </c>
-      <c r="BH80">
-        <v>-0.040867673058616</v>
-      </c>
-      <c r="BI80">
-        <v>-0.0292397660818721</v>
-      </c>
-      <c r="BJ80">
-        <v>0.988372093023256</v>
-      </c>
-      <c r="BK80">
-        <v>1</v>
-      </c>
-      <c r="BL80">
-        <v>0.973684210526316</v>
-      </c>
-      <c r="BM80">
-        <v>0.944444444444444</v>
-      </c>
-      <c r="BN80">
-        <v>0.336771686046512</v>
-      </c>
-      <c r="BO80">
-        <v>0.289672413793103</v>
-      </c>
-      <c r="BP80">
-        <v>0.317635131578947</v>
-      </c>
-      <c r="BQ80">
-        <v>0.334363333333333</v>
-      </c>
-      <c r="BR80">
-        <v>0.573176453488372</v>
-      </c>
-      <c r="BS80">
-        <v>0.471530172413793</v>
-      </c>
-      <c r="BT80">
-        <v>0.535680131578947</v>
-      </c>
-      <c r="BU80">
-        <v>0.650949583333333</v>
-      </c>
-      <c r="BV80">
-        <v>6</v>
-      </c>
-      <c r="BW80">
-        <v>6</v>
-      </c>
-      <c r="BX80">
-        <v>6</v>
-      </c>
-      <c r="BY80">
-        <v>9</v>
-      </c>
-      <c r="BZ80">
-        <v>9</v>
-      </c>
-      <c r="CA80">
-        <v>9</v>
-      </c>
-      <c r="CB80">
-        <v>9</v>
-      </c>
-      <c r="CC80">
-        <v>5</v>
-      </c>
-      <c r="CD80">
-        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>372</v>
+        <v>62</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -20586,7 +20572,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -20594,250 +20580,248 @@
         </is>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ThisWeek</t>
+        </is>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>19</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81">
+        <v>15</v>
+      </c>
+      <c r="T81">
         <v>8</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Poker</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Yesterday</t>
-        </is>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Today</t>
-        </is>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>7</v>
-      </c>
-      <c r="S81">
-        <v>8</v>
-      </c>
-      <c r="T81">
-        <v>20</v>
-      </c>
       <c r="U81">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="V81">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="W81">
+        <v>11</v>
+      </c>
+      <c r="X81">
+        <v>9</v>
+      </c>
+      <c r="Y81">
+        <v>5</v>
+      </c>
+      <c r="Z81">
+        <v>10</v>
+      </c>
+      <c r="AA81">
+        <v>14</v>
+      </c>
+      <c r="AB81">
+        <v>45</v>
+      </c>
+      <c r="AC81">
+        <v>15</v>
+      </c>
+      <c r="AD81">
+        <v>4</v>
+      </c>
+      <c r="AE81">
+        <v>75</v>
+      </c>
+      <c r="AF81">
+        <v>36</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>0.288603736263736</v>
+      </c>
+      <c r="AP81">
+        <v>0.263115555555556</v>
+      </c>
+      <c r="AQ81">
+        <v>0.272770222222222</v>
+      </c>
+      <c r="AR81">
+        <v>0.267851805555556</v>
+      </c>
+      <c r="AS81">
+        <v>0.475722142857143</v>
+      </c>
+      <c r="AT81">
+        <v>0.496810833333333</v>
+      </c>
+      <c r="AU81">
+        <v>0.491667222222222</v>
+      </c>
+      <c r="AV81">
+        <v>0.47796625</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
         <v>6</v>
       </c>
-      <c r="X81">
-        <v>11</v>
-      </c>
-      <c r="Y81">
-        <v>7</v>
-      </c>
-      <c r="Z81">
-        <v>6</v>
-      </c>
-      <c r="AA81">
-        <v>13</v>
-      </c>
-      <c r="AB81">
-        <v>32</v>
-      </c>
-      <c r="AC81">
-        <v>21</v>
-      </c>
-      <c r="AD81">
-        <v>8</v>
-      </c>
-      <c r="AE81">
-        <v>76</v>
-      </c>
-      <c r="AF81">
-        <v>51</v>
-      </c>
-      <c r="AG81">
-        <v>1</v>
-      </c>
-      <c r="AH81">
-        <v>0.0497841598446459</v>
-      </c>
-      <c r="AI81">
-        <v>0.027715194327404</v>
-      </c>
-      <c r="AJ81">
-        <v>0.022040816326531</v>
-      </c>
-      <c r="AK81">
-        <v>0.936708860759494</v>
-      </c>
-      <c r="AL81">
-        <v>0.931034482758621</v>
-      </c>
-      <c r="AM81">
-        <v>0.8979591836734691</v>
-      </c>
-      <c r="AN81">
-        <v>0.92</v>
-      </c>
-      <c r="AO81">
-        <v>0.24026329113924</v>
-      </c>
-      <c r="AP81">
-        <v>0.2534</v>
-      </c>
-      <c r="AQ81">
-        <v>0.220389795918367</v>
-      </c>
-      <c r="AR81">
-        <v>0.2383</v>
-      </c>
-      <c r="AS81">
-        <v>0.684141772151899</v>
-      </c>
-      <c r="AT81">
-        <v>0.629058620689655</v>
-      </c>
-      <c r="AU81">
-        <v>0.563755102040816</v>
-      </c>
-      <c r="AV81">
-        <v>0.658116</v>
-      </c>
-      <c r="AW81">
-        <v>6</v>
-      </c>
-      <c r="AX81">
-        <v>8</v>
-      </c>
       <c r="AY81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB81">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC81">
         <v>3</v>
       </c>
       <c r="BD81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BE81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BF81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG81">
-        <v>-0.50402785895188</v>
+        <v>0.0702434380524959</v>
       </c>
       <c r="BH81">
-        <v>-0.0454071692967081</v>
+        <v>-0.040867673058616</v>
       </c>
       <c r="BI81">
-        <v>-0.133050847457627</v>
+        <v>-0.0292397660818721</v>
       </c>
       <c r="BJ81">
-        <v>0.708333333333333</v>
+        <v>0.988372093023256</v>
       </c>
       <c r="BK81">
-        <v>0.620689655172414</v>
+        <v>1</v>
       </c>
       <c r="BL81">
-        <v>0.9830508474576271</v>
+        <v>0.973684210526316</v>
       </c>
       <c r="BM81">
-        <v>0.85</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="BN81">
-        <v>0.221208333333333</v>
+        <v>0.336771686046512</v>
       </c>
       <c r="BO81">
-        <v>0.212775862068966</v>
+        <v>0.289672413793103</v>
       </c>
       <c r="BP81">
-        <v>0.203289830508475</v>
+        <v>0.317635131578947</v>
       </c>
       <c r="BQ81">
-        <v>0.209015</v>
+        <v>0.334363333333333</v>
       </c>
       <c r="BR81">
-        <v>0.697609722222222</v>
+        <v>0.573176453488372</v>
       </c>
       <c r="BS81">
-        <v>0.690503448275862</v>
+        <v>0.471530172413793</v>
       </c>
       <c r="BT81">
-        <v>0.61738813559322</v>
+        <v>0.535680131578947</v>
       </c>
       <c r="BU81">
-        <v>0.908735</v>
+        <v>0.650949583333333</v>
       </c>
       <c r="BV81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BX81">
+        <v>6</v>
+      </c>
+      <c r="BY81">
+        <v>9</v>
+      </c>
+      <c r="BZ81">
+        <v>9</v>
+      </c>
+      <c r="CA81">
+        <v>9</v>
+      </c>
+      <c r="CB81">
+        <v>9</v>
+      </c>
+      <c r="CC81">
         <v>5</v>
       </c>
-      <c r="BY81">
-        <v>6</v>
-      </c>
-      <c r="BZ81">
-        <v>7</v>
-      </c>
-      <c r="CA81">
-        <v>7</v>
-      </c>
-      <c r="CB81">
-        <v>3</v>
-      </c>
-      <c r="CC81">
-        <v>2</v>
-      </c>
       <c r="CD81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -20845,24 +20829,37 @@
         </is>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E82">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Poker</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Yesterday</t>
         </is>
       </c>
       <c r="K82">
@@ -20870,11 +20867,11 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Earlier</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -20885,196 +20882,442 @@
       <c r="P82">
         <v>1</v>
       </c>
+      <c r="Q82">
+        <v>7</v>
+      </c>
       <c r="S82">
+        <v>8</v>
+      </c>
+      <c r="T82">
+        <v>20</v>
+      </c>
+      <c r="U82">
+        <v>35</v>
+      </c>
+      <c r="V82">
+        <v>43</v>
+      </c>
+      <c r="W82">
+        <v>6</v>
+      </c>
+      <c r="X82">
         <v>11</v>
       </c>
-      <c r="T82">
+      <c r="Y82">
+        <v>7</v>
+      </c>
+      <c r="Z82">
+        <v>6</v>
+      </c>
+      <c r="AA82">
         <v>13</v>
       </c>
-      <c r="U82">
-        <v>39</v>
-      </c>
-      <c r="V82">
-        <v>41</v>
-      </c>
-      <c r="W82">
+      <c r="AB82">
+        <v>32</v>
+      </c>
+      <c r="AC82">
+        <v>21</v>
+      </c>
+      <c r="AD82">
+        <v>8</v>
+      </c>
+      <c r="AE82">
+        <v>76</v>
+      </c>
+      <c r="AF82">
+        <v>51</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>0.0497841598446459</v>
+      </c>
+      <c r="AI82">
+        <v>0.027715194327404</v>
+      </c>
+      <c r="AJ82">
+        <v>0.022040816326531</v>
+      </c>
+      <c r="AK82">
+        <v>0.936708860759494</v>
+      </c>
+      <c r="AL82">
+        <v>0.931034482758621</v>
+      </c>
+      <c r="AM82">
+        <v>0.8979591836734691</v>
+      </c>
+      <c r="AN82">
+        <v>0.92</v>
+      </c>
+      <c r="AO82">
+        <v>0.24026329113924</v>
+      </c>
+      <c r="AP82">
+        <v>0.2534</v>
+      </c>
+      <c r="AQ82">
+        <v>0.220389795918367</v>
+      </c>
+      <c r="AR82">
+        <v>0.2383</v>
+      </c>
+      <c r="AS82">
+        <v>0.684141772151899</v>
+      </c>
+      <c r="AT82">
+        <v>0.629058620689655</v>
+      </c>
+      <c r="AU82">
+        <v>0.563755102040816</v>
+      </c>
+      <c r="AV82">
+        <v>0.658116</v>
+      </c>
+      <c r="AW82">
+        <v>6</v>
+      </c>
+      <c r="AX82">
+        <v>8</v>
+      </c>
+      <c r="AY82">
+        <v>6</v>
+      </c>
+      <c r="AZ82">
+        <v>8</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
         <v>7</v>
       </c>
-      <c r="X82">
-        <v>10</v>
-      </c>
-      <c r="Y82">
-        <v>5</v>
-      </c>
-      <c r="Z82">
+      <c r="BC82">
+        <v>3</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>2</v>
+      </c>
+      <c r="BF82">
+        <v>1</v>
+      </c>
+      <c r="BG82">
+        <v>-0.50402785895188</v>
+      </c>
+      <c r="BH82">
+        <v>-0.0454071692967081</v>
+      </c>
+      <c r="BI82">
+        <v>-0.133050847457627</v>
+      </c>
+      <c r="BJ82">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="BK82">
+        <v>0.620689655172414</v>
+      </c>
+      <c r="BL82">
+        <v>0.9830508474576271</v>
+      </c>
+      <c r="BM82">
+        <v>0.85</v>
+      </c>
+      <c r="BN82">
+        <v>0.221208333333333</v>
+      </c>
+      <c r="BO82">
+        <v>0.212775862068966</v>
+      </c>
+      <c r="BP82">
+        <v>0.203289830508475</v>
+      </c>
+      <c r="BQ82">
+        <v>0.209015</v>
+      </c>
+      <c r="BR82">
+        <v>0.697609722222222</v>
+      </c>
+      <c r="BS82">
+        <v>0.690503448275862</v>
+      </c>
+      <c r="BT82">
+        <v>0.61738813559322</v>
+      </c>
+      <c r="BU82">
+        <v>0.908735</v>
+      </c>
+      <c r="BV82">
+        <v>7</v>
+      </c>
+      <c r="BW82">
         <v>4</v>
-      </c>
-      <c r="AA82">
-        <v>15</v>
-      </c>
-      <c r="AB82">
-        <v>38</v>
-      </c>
-      <c r="AC82">
-        <v>22</v>
-      </c>
-      <c r="AD82">
-        <v>3</v>
-      </c>
-      <c r="AE82">
-        <v>74</v>
-      </c>
-      <c r="AF82">
-        <v>34</v>
-      </c>
-      <c r="AG82">
-        <v>1</v>
-      </c>
-      <c r="AH82">
-        <v>1.01697715464738</v>
-      </c>
-      <c r="AI82">
-        <v>-0.249109801874364</v>
-      </c>
-      <c r="AJ82">
-        <v>-0.07849056603773601</v>
-      </c>
-      <c r="AK82">
-        <v>0.742424242424242</v>
-      </c>
-      <c r="AL82">
-        <v>0.91304347826087</v>
-      </c>
-      <c r="AM82">
-        <v>0.358490566037736</v>
-      </c>
-      <c r="AN82">
-        <v>0.28</v>
-      </c>
-      <c r="AO82">
-        <v>0.233304545454545</v>
-      </c>
-      <c r="AP82">
-        <v>0.236681304347826</v>
-      </c>
-      <c r="AQ82">
-        <v>0.229359056603774</v>
-      </c>
-      <c r="AR82">
-        <v>0.1964186</v>
-      </c>
-      <c r="AS82">
-        <v>0.258996136363636</v>
-      </c>
-      <c r="AT82">
-        <v>0.272274347826087</v>
-      </c>
-      <c r="AU82">
-        <v>0.248946603773585</v>
-      </c>
-      <c r="AV82">
-        <v>0.2174786</v>
-      </c>
-      <c r="AW82">
-        <v>2</v>
-      </c>
-      <c r="AX82">
-        <v>1</v>
-      </c>
-      <c r="AY82">
-        <v>2</v>
-      </c>
-      <c r="AZ82">
-        <v>3</v>
-      </c>
-      <c r="BA82">
-        <v>3</v>
-      </c>
-      <c r="BB82">
-        <v>4</v>
-      </c>
-      <c r="BC82">
-        <v>5</v>
-      </c>
-      <c r="BD82">
-        <v>7</v>
-      </c>
-      <c r="BE82">
-        <v>8</v>
-      </c>
-      <c r="BF82">
-        <v>1</v>
-      </c>
-      <c r="BG82">
-        <v>0.457320340231732</v>
-      </c>
-      <c r="BH82">
-        <v>-0.217282834371442</v>
-      </c>
-      <c r="BI82">
-        <v>-0.216931216931217</v>
-      </c>
-      <c r="BJ82">
-        <v>0.860759493670886</v>
-      </c>
-      <c r="BK82">
-        <v>0.8611111111111111</v>
-      </c>
-      <c r="BL82">
-        <v>0.740740740740741</v>
-      </c>
-      <c r="BM82">
-        <v>0.523809523809524</v>
-      </c>
-      <c r="BN82">
-        <v>0.237975316455696</v>
-      </c>
-      <c r="BO82">
-        <v>0.2097025</v>
-      </c>
-      <c r="BP82">
-        <v>0.193529259259259</v>
-      </c>
-      <c r="BQ82">
-        <v>0.229070476190476</v>
-      </c>
-      <c r="BR82">
-        <v>0.255134936708861</v>
-      </c>
-      <c r="BS82">
-        <v>0.239421666666667</v>
-      </c>
-      <c r="BT82">
-        <v>0.270691018518519</v>
-      </c>
-      <c r="BU82">
-        <v>0.243760476190476</v>
-      </c>
-      <c r="BV82">
-        <v>5</v>
-      </c>
-      <c r="BW82">
-        <v>2</v>
       </c>
       <c r="BX82">
         <v>5</v>
       </c>
       <c r="BY82">
+        <v>6</v>
+      </c>
+      <c r="BZ82">
+        <v>7</v>
+      </c>
+      <c r="CA82">
+        <v>7</v>
+      </c>
+      <c r="CB82">
+        <v>3</v>
+      </c>
+      <c r="CC82">
+        <v>2</v>
+      </c>
+      <c r="CD82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>253</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>23</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Earlier</t>
+        </is>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>11</v>
+      </c>
+      <c r="T83">
+        <v>13</v>
+      </c>
+      <c r="U83">
+        <v>39</v>
+      </c>
+      <c r="V83">
+        <v>41</v>
+      </c>
+      <c r="W83">
+        <v>7</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>5</v>
+      </c>
+      <c r="Z83">
+        <v>4</v>
+      </c>
+      <c r="AA83">
+        <v>15</v>
+      </c>
+      <c r="AB83">
+        <v>38</v>
+      </c>
+      <c r="AC83">
+        <v>22</v>
+      </c>
+      <c r="AD83">
+        <v>3</v>
+      </c>
+      <c r="AE83">
+        <v>74</v>
+      </c>
+      <c r="AF83">
+        <v>34</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+      <c r="AH83">
+        <v>1.01697715464738</v>
+      </c>
+      <c r="AI83">
+        <v>-0.249109801874364</v>
+      </c>
+      <c r="AJ83">
+        <v>-0.07849056603773601</v>
+      </c>
+      <c r="AK83">
+        <v>0.742424242424242</v>
+      </c>
+      <c r="AL83">
+        <v>0.91304347826087</v>
+      </c>
+      <c r="AM83">
+        <v>0.358490566037736</v>
+      </c>
+      <c r="AN83">
+        <v>0.28</v>
+      </c>
+      <c r="AO83">
+        <v>0.233304545454545</v>
+      </c>
+      <c r="AP83">
+        <v>0.236681304347826</v>
+      </c>
+      <c r="AQ83">
+        <v>0.229359056603774</v>
+      </c>
+      <c r="AR83">
+        <v>0.1964186</v>
+      </c>
+      <c r="AS83">
+        <v>0.258996136363636</v>
+      </c>
+      <c r="AT83">
+        <v>0.272274347826087</v>
+      </c>
+      <c r="AU83">
+        <v>0.248946603773585</v>
+      </c>
+      <c r="AV83">
+        <v>0.2174786</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>1</v>
+      </c>
+      <c r="AY83">
+        <v>2</v>
+      </c>
+      <c r="AZ83">
+        <v>3</v>
+      </c>
+      <c r="BA83">
+        <v>3</v>
+      </c>
+      <c r="BB83">
+        <v>4</v>
+      </c>
+      <c r="BC83">
+        <v>5</v>
+      </c>
+      <c r="BD83">
+        <v>7</v>
+      </c>
+      <c r="BE83">
         <v>8</v>
       </c>
-      <c r="BZ82">
+      <c r="BF83">
+        <v>1</v>
+      </c>
+      <c r="BG83">
+        <v>0.457320340231732</v>
+      </c>
+      <c r="BH83">
+        <v>-0.217282834371442</v>
+      </c>
+      <c r="BI83">
+        <v>-0.216931216931217</v>
+      </c>
+      <c r="BJ83">
+        <v>0.860759493670886</v>
+      </c>
+      <c r="BK83">
+        <v>0.8611111111111111</v>
+      </c>
+      <c r="BL83">
+        <v>0.740740740740741</v>
+      </c>
+      <c r="BM83">
+        <v>0.523809523809524</v>
+      </c>
+      <c r="BN83">
+        <v>0.237975316455696</v>
+      </c>
+      <c r="BO83">
+        <v>0.2097025</v>
+      </c>
+      <c r="BP83">
+        <v>0.193529259259259</v>
+      </c>
+      <c r="BQ83">
+        <v>0.229070476190476</v>
+      </c>
+      <c r="BR83">
+        <v>0.255134936708861</v>
+      </c>
+      <c r="BS83">
+        <v>0.239421666666667</v>
+      </c>
+      <c r="BT83">
+        <v>0.270691018518519</v>
+      </c>
+      <c r="BU83">
+        <v>0.243760476190476</v>
+      </c>
+      <c r="BV83">
+        <v>5</v>
+      </c>
+      <c r="BW83">
+        <v>2</v>
+      </c>
+      <c r="BX83">
+        <v>5</v>
+      </c>
+      <c r="BY83">
+        <v>8</v>
+      </c>
+      <c r="BZ83">
         <v>3</v>
       </c>
-      <c r="CA82">
+      <c r="CA83">
         <v>5</v>
       </c>
-      <c r="CB82">
+      <c r="CB83">
         <v>4</v>
       </c>
-      <c r="CC82">
+      <c r="CC83">
         <v>6</v>
       </c>
-      <c r="CD82">
+      <c r="CD83">
         <v>7</v>
       </c>
     </row>
